--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B90EE-4D63-4AD5-8C9A-4847B514BFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCEF06-528D-4C31-9940-90188A3F8A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="136">
   <si>
     <r>
       <rPr>
@@ -666,9 +666,6 @@
     <t>TENTATIVA DE FEMICIDIO</t>
   </si>
   <si>
-    <t>MUERTE VIOLENTA (1)</t>
-  </si>
-  <si>
     <t>ENERO</t>
   </si>
   <si>
@@ -706,10 +703,6 @@
   </si>
   <si>
     <t>ÁREA GEOGRÁFICA</t>
-  </si>
-  <si>
-    <t>MUERTE VIOLENTA
-(1)</t>
   </si>
   <si>
     <t>BOCAS DEL TORO</t>
@@ -761,9 +754,6 @@
   </si>
   <si>
     <t>Tentativa de Femicidio</t>
-  </si>
-  <si>
-    <t>Muerte Violenta (1)</t>
   </si>
   <si>
     <t>0-4 años</t>
@@ -927,12 +917,24 @@
   <si>
     <t>(2) La variación porcentual reflejada en este cuadro se refiere a los mesese de enero a septiembre mostrando un aumento del 50% en Femicidio; un 63% menos en Tentativa de Femicidio y un 25% menos en Muerte Violenta al compararlos con el mismo periodo del año anterior 2019.</t>
   </si>
+  <si>
+    <t>MUERTE VIOLENTA</t>
+  </si>
+  <si>
+    <t>Tipo Delito</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Muerte Violenta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -977,11 +979,6 @@
     <font>
       <i/>
       <sz val="7.5"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -1325,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1359,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,17 +1395,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1428,7 +1422,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,34 +1431,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="20" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="19" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="20" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="20" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="19" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,18 +1461,122 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="77">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1518,6 +1610,14 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -1562,82 +1662,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2931,269 +2955,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="8.5"/>
         <color rgb="FF000000"/>
         <name val="Cambria"/>
@@ -3914,6 +3675,82 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="7.5"/>
         <color auto="1"/>
         <name val="Cambria"/>
@@ -3954,6 +3791,120 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3971,16 +3922,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3995,7 +3946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="247649"/>
+          <a:off x="6943725" y="19049"/>
           <a:ext cx="5095875" cy="3009901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4100,13 +4051,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4225,13 +4176,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
@@ -4352,7 +4303,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2067813</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1358120</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="439" cy="692200"/>
@@ -4397,7 +4348,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>872616</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1390098</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="0" cy="691464"/>
@@ -4440,16 +4391,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4464,8 +4415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="180974"/>
-          <a:ext cx="5219700" cy="3543301"/>
+          <a:off x="6408420" y="49529"/>
+          <a:ext cx="6073140" cy="2769871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5135,148 +5086,144 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A99F51E-3125-41F6-8A55-C40B4DACABE3}" name="Femicidio_Mes_Panama" displayName="Femicidio_Mes_Panama" ref="A1:E37" totalsRowShown="0">
-  <autoFilter ref="A1:E37" xr:uid="{7F0E5435-7C5E-4A00-B708-F5EDBE512978}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A99F51E-3125-41F6-8A55-C40B4DACABE3}" name="Femicidio_Mes_Panama" displayName="Femicidio_Mes_Panama" ref="A1:D109" totalsRowShown="0">
+  <autoFilter ref="A1:D109" xr:uid="{7F0E5435-7C5E-4A00-B708-F5EDBE512978}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
     <sortCondition ref="A1:A37"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{8CFD14A4-4ED3-4622-9C85-056441705531}" name="Año" dataDxfId="59"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{8CFD14A4-4ED3-4622-9C85-056441705531}" name="Año" dataDxfId="76"/>
     <tableColumn id="1" xr3:uid="{814B7C61-8738-4D50-A30D-B717D1619235}" name="MES"/>
-    <tableColumn id="3" xr3:uid="{60D3103B-D828-4F3A-B5BE-01F557FC2A9A}" name="FEMICIDIO" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{02851A0B-2207-4A06-9A40-7E8C00672289}" name="TENTATIVA DE FEMICIDIO" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{C5F2F379-E68F-4332-8E38-1F48BBBC9B8C}" name="MUERTE VIOLENTA (1)" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{4B326D34-F1E9-46A2-B526-6439632CCE3F}" name="Tipo Delito"/>
+    <tableColumn id="3" xr3:uid="{60D3103B-D828-4F3A-B5BE-01F557FC2A9A}" name="Cantidad" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF321475-2A64-456A-B72F-74359DF25E3E}" name="Femicidio_Provincia_Panama" displayName="Femicidio_Provincia_Panama" ref="A1:E37" totalsRowShown="0" dataDxfId="55">
-  <autoFilter ref="A1:E37" xr:uid="{2EA9E4BD-48B9-4B8E-A7DD-088EA5AEF36B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF321475-2A64-456A-B72F-74359DF25E3E}" name="Femicidio_Provincia_Panama" displayName="Femicidio_Provincia_Panama" ref="A1:D109" totalsRowShown="0" dataDxfId="74">
+  <autoFilter ref="A1:D109" xr:uid="{2EA9E4BD-48B9-4B8E-A7DD-088EA5AEF36B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
     <sortCondition ref="A1:A37"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{CCDB4D91-9A45-48DF-A0FA-5DCF5DF285EE}" name="Año" dataDxfId="54"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{CCDB4D91-9A45-48DF-A0FA-5DCF5DF285EE}" name="Año" dataDxfId="73"/>
     <tableColumn id="1" xr3:uid="{7E65EC75-9A72-4E83-9425-CF9E8C705E39}" name="ÁREA GEOGRÁFICA"/>
-    <tableColumn id="2" xr3:uid="{6EA7E6C7-2CAE-436F-AE99-7149530B9CE2}" name="FEMICIDIO" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{5DE92C80-CDA4-4E3F-9F66-78CB8AAA0EB0}" name="TENTATIVA DE FEMICIDIO" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{58314958-DB7B-4241-B40D-E8C58B1D375C}" name="MUERTE VIOLENTA_x000a_(1)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{22F9F53D-491A-4270-8CED-6C402CEC2FAB}" name="Tipo Delito"/>
+    <tableColumn id="2" xr3:uid="{6EA7E6C7-2CAE-436F-AE99-7149530B9CE2}" name="Cantidad" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B84E57B-424F-4835-B975-1E7F776CBB20}" name="Femicidio_Edad_Panama" displayName="Femicidio_Edad_Panama" ref="A1:E55" totalsRowShown="0" headerRowDxfId="50">
-  <autoFilter ref="A1:E55" xr:uid="{E566C7E3-FD90-466E-86ED-C27832F22AD8}"/>
-  <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{DBA15307-9A04-450A-B817-0B9ED1D35BC2}" name="Año" dataDxfId="49"/>
-    <tableColumn id="1" xr3:uid="{1EED83BA-D528-4014-8F4B-CC5FB9A8E70A}" name="Rango de Edad" dataDxfId="48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B84E57B-424F-4835-B975-1E7F776CBB20}" name="Femicidio_Edad_Panama" displayName="Femicidio_Edad_Panama" ref="A1:D163" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D163" xr:uid="{E566C7E3-FD90-466E-86ED-C27832F22AD8}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{DBA15307-9A04-450A-B817-0B9ED1D35BC2}" name="Año" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1EED83BA-D528-4014-8F4B-CC5FB9A8E70A}" name="Rango de Edad" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{784EC2DB-C1A5-4FE5-BBCB-EFC02BC02A0A}" name="Tipo Delito" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{469503C1-5C93-4AE2-AC57-07C6D3ECBF1F}" name="Femicidio"/>
-    <tableColumn id="3" xr3:uid="{C2D77640-DA58-4E3C-B3BA-1537700F86B4}" name="Tentativa de Femicidio"/>
-    <tableColumn id="4" xr3:uid="{93522E50-6ADE-4BB2-B1DA-CD298CB14F40}" name="Muerte Violenta (1)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D25D5733-97A1-4449-959A-0763463800B2}" name="Femicidio_TipoArma_Panama" displayName="Femicidio_TipoArma_Panama" ref="A1:E20" totalsRowShown="0" tableBorderDxfId="47">
-  <autoFilter ref="A1:E20" xr:uid="{FC14A289-1D97-415E-BE92-4B62D4ED45E0}"/>
-  <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{6EF376B2-C898-46AC-BDE4-A01658642120}" name="Año" dataDxfId="46"/>
-    <tableColumn id="1" xr3:uid="{0BB9144D-1867-499A-9609-60D1FA852717}" name="Tipo de Arma Utilizada" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{1407E0BD-64EC-44D5-A1BB-81195B1B5787}" name="Femicidio" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{44F57FBA-CD6F-4004-8ADC-5851226E5DA4}" name="Tentativa de Femicidio" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{E73FA3C0-F46C-443F-B45B-5F46CE404DB2}" name="Muerte Violenta (1)" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D25D5733-97A1-4449-959A-0763463800B2}" name="Femicidio_TipoArma_Panama" displayName="Femicidio_TipoArma_Panama" ref="A1:D58" totalsRowShown="0" tableBorderDxfId="71">
+  <autoFilter ref="A1:D58" xr:uid="{FC14A289-1D97-415E-BE92-4B62D4ED45E0}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{6EF376B2-C898-46AC-BDE4-A01658642120}" name="Año" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{0BB9144D-1867-499A-9609-60D1FA852717}" name="Tipo de Arma Utilizada" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{5E7A90C7-A84B-493A-9F60-C9B85B530EE6}" name="Tipo Delito"/>
+    <tableColumn id="2" xr3:uid="{1407E0BD-64EC-44D5-A1BB-81195B1B5787}" name="Cantidad" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E863833-F091-471D-9F99-434D3D463F03}" name="Tabla6" displayName="Tabla6" ref="A1:V15" totalsRowShown="0" headerRowBorderDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E863833-F091-471D-9F99-434D3D463F03}" name="Tabla6" displayName="Tabla6" ref="A1:V15" totalsRowShown="0" headerRowBorderDxfId="67" tableBorderDxfId="66">
   <autoFilter ref="A1:V15" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{03BE7E76-4119-4D97-900E-86E817F7AD14}" name="ÁREA GEOGRÁFICA" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{34128770-04FD-4157-9D93-00E7C3BFA532}" name="ene-19" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{2C05A97D-4E82-4573-AA58-21C5DA2A47EC}" name="ene-20" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{892F7350-5B16-4240-B6B3-123943713CC5}" name="feb-19" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{D017E81A-1695-469D-B323-AFA8E3974641}" name="feb-20" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{EDF63441-DF84-4770-9514-D792C866C165}" name="mar-19" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{020504B9-6E2E-4598-9BA4-47CA7A6F96A1}" name="mar-20" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{94536009-1131-4E93-A85B-D09C22157A3B}" name="abr-19" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{E37C02A3-1DB5-452B-AD07-31701BD1844F}" name="abr-20" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{984AB5EA-713F-423C-B4E7-70EF232F5DF1}" name="may-19" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{2C64A130-B70E-458F-970F-D16059846462}" name="may-20" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{7284A72D-CF3D-4532-BA02-95FCE10C4602}" name="jun-19" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{02DF413D-BA73-4DD7-B5BE-877CC4304153}" name="jun-20" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{53BF87D8-AA81-4642-9DFE-4F847057E207}" name="jul-19" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{280DC817-7060-4660-A989-1E8F91FE9082}" name="jul-20" dataDxfId="65"/>
-    <tableColumn id="16" xr3:uid="{1AC827D5-365D-40BA-AA8A-6A50DAB8D5FF}" name="ago-19" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{4E569EED-D40A-4FE2-9BC0-A35DF44432D9}" name="ago-20" dataDxfId="63"/>
-    <tableColumn id="22" xr3:uid="{3F626001-9B74-48C7-8CA9-58B575A5B863}" name="sept-19" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{E3D08400-9482-4AAD-BBD9-5B86A1BB07E7}" name="sept-20" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{4CDE01EF-095A-418E-BA55-C6C31CCD46E1}" name="TOTAL  2019 (1)" dataDxfId="62"/>
-    <tableColumn id="19" xr3:uid="{E15773F0-B98C-44AB-81B4-89C061BA4606}" name="TOTAL  2020 (1)" dataDxfId="61"/>
-    <tableColumn id="20" xr3:uid="{EFECA936-EE15-460A-BE3B-9FAE48106D0E}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{03BE7E76-4119-4D97-900E-86E817F7AD14}" name="ÁREA GEOGRÁFICA" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{34128770-04FD-4157-9D93-00E7C3BFA532}" name="ene-19" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{2C05A97D-4E82-4573-AA58-21C5DA2A47EC}" name="ene-20" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{892F7350-5B16-4240-B6B3-123943713CC5}" name="feb-19" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{D017E81A-1695-469D-B323-AFA8E3974641}" name="feb-20" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{EDF63441-DF84-4770-9514-D792C866C165}" name="mar-19" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{020504B9-6E2E-4598-9BA4-47CA7A6F96A1}" name="mar-20" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{94536009-1131-4E93-A85B-D09C22157A3B}" name="abr-19" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{E37C02A3-1DB5-452B-AD07-31701BD1844F}" name="abr-20" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{984AB5EA-713F-423C-B4E7-70EF232F5DF1}" name="may-19" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{2C64A130-B70E-458F-970F-D16059846462}" name="may-20" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{7284A72D-CF3D-4532-BA02-95FCE10C4602}" name="jun-19" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{02DF413D-BA73-4DD7-B5BE-877CC4304153}" name="jun-20" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{53BF87D8-AA81-4642-9DFE-4F847057E207}" name="jul-19" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{280DC817-7060-4660-A989-1E8F91FE9082}" name="jul-20" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{1AC827D5-365D-40BA-AA8A-6A50DAB8D5FF}" name="ago-19" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{4E569EED-D40A-4FE2-9BC0-A35DF44432D9}" name="ago-20" dataDxfId="49"/>
+    <tableColumn id="22" xr3:uid="{3F626001-9B74-48C7-8CA9-58B575A5B863}" name="sept-19" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{E3D08400-9482-4AAD-BBD9-5B86A1BB07E7}" name="sept-20" dataDxfId="47"/>
+    <tableColumn id="18" xr3:uid="{4CDE01EF-095A-418E-BA55-C6C31CCD46E1}" name="TOTAL  2019 (1)" dataDxfId="46"/>
+    <tableColumn id="19" xr3:uid="{E15773F0-B98C-44AB-81B4-89C061BA4606}" name="TOTAL  2020 (1)" dataDxfId="45"/>
+    <tableColumn id="20" xr3:uid="{EFECA936-EE15-460A-BE3B-9FAE48106D0E}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0279BC9B-3635-40B8-8BD3-E5EC6E695C9D}" name="Tabla62" displayName="Tabla62" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0279BC9B-3635-40B8-8BD3-E5EC6E695C9D}" name="Tabla62" displayName="Tabla62" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A1:O19" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B3EE8C17-A4A7-4A4D-94BB-9EE33BE2BDC8}" name="Fecha" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00293AFF-441F-4569-B381-818D5B1BCA8C}" name="Bocas Del Toro" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{B6957D72-CC8D-4A5E-B305-6CB700A9AE98}" name="Chiriquí" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{D3E6AAE3-4687-4BCE-B6C7-490766B0C854}" name="Coclé" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{48A711EF-CCC7-48E7-913B-E845D051A0DE}" name="Colón" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{D0C9AF31-B85A-4E99-A625-2698D073885E}" name="Comarca Emberá" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{0B846915-D36F-4439-A201-DFEA01A491BD}" name="Comarca Kuna Yala" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{52E051E9-F1E3-46B3-B193-2DFE05F8EA8A}" name="Comarca Ngöbe Buglé" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{69FB447E-1294-472C-99BE-4FFC791FE81F}" name="Darién" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{37E01297-91C4-4D91-A868-A367D01DF864}" name="Herrera" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{870B1540-89B2-45BB-9BC2-093140297EB7}" name="Los Santos" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{95C45461-C3B3-448D-81AD-C43B5B040AA3}" name="Panamá" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{352164F8-7168-4A64-B618-CB98D88C9917}" name="San Miguelito" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{7D4B1F9B-13C5-4AE1-AA97-A20415FB3F8E}" name="Panamá Oeste" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{FA6EB57B-FDD6-4956-BBF1-915206F87EB6}" name="Veraguas" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{B3EE8C17-A4A7-4A4D-94BB-9EE33BE2BDC8}" name="Fecha" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00293AFF-441F-4569-B381-818D5B1BCA8C}" name="Bocas Del Toro" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B6957D72-CC8D-4A5E-B305-6CB700A9AE98}" name="Chiriquí" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D3E6AAE3-4687-4BCE-B6C7-490766B0C854}" name="Coclé" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{48A711EF-CCC7-48E7-913B-E845D051A0DE}" name="Colón" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{D0C9AF31-B85A-4E99-A625-2698D073885E}" name="Comarca Emberá" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{0B846915-D36F-4439-A201-DFEA01A491BD}" name="Comarca Kuna Yala" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{52E051E9-F1E3-46B3-B193-2DFE05F8EA8A}" name="Comarca Ngöbe Buglé" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{69FB447E-1294-472C-99BE-4FFC791FE81F}" name="Darién" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{37E01297-91C4-4D91-A868-A367D01DF864}" name="Herrera" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{870B1540-89B2-45BB-9BC2-093140297EB7}" name="Los Santos" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{95C45461-C3B3-448D-81AD-C43B5B040AA3}" name="Panamá" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{352164F8-7168-4A64-B618-CB98D88C9917}" name="San Miguelito" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{7D4B1F9B-13C5-4AE1-AA97-A20415FB3F8E}" name="Panamá Oeste" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{FA6EB57B-FDD6-4956-BBF1-915206F87EB6}" name="Veraguas" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89AAC442-C09B-4BA0-BF98-616A919B56B3}" name="Tabla7" displayName="Tabla7" ref="A1:V4" totalsRowShown="0" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89AAC442-C09B-4BA0-BF98-616A919B56B3}" name="Tabla7" displayName="Tabla7" ref="A1:V4" totalsRowShown="0" tableBorderDxfId="26">
   <autoFilter ref="A1:V4" xr:uid="{A70A87EF-2056-4CC1-B503-2E0715282851}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{4C4BC0E7-00E1-436B-8CC3-0ED2612B115B}" name="DELITO" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C533D893-036C-49F0-A882-F0B44414757C}" name="ene-19" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{A63545A1-56EA-4FF6-A464-2E50B1FCC1F0}" name="ene-20" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{66085EF7-0DEF-4584-9E93-8062EB243000}" name="feb-19" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{5D907038-57FA-4B50-BC68-19A644C8673B}" name="feb-20" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{DB232B49-4315-4BD4-BC42-6D717496D075}" name="mar-19" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{30BC5F7C-8188-44D6-86D3-13E526CDC952}" name="mar-20" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{0FE91767-D945-4F0E-BACA-DAC27DFA2DB5}" name="abr-19" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{D5338135-66CD-4DDE-B864-0950F0201979}" name="abr-20" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{4BE22E96-15C3-485B-AF54-0B0D5E331491}" name="may-19" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{8E3205AE-5750-4D71-A45C-64148C55CAD7}" name="may-20" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{977441D7-788C-45CF-8B48-BCE8E430C44F}" name="jun-19" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{99758D8A-33C7-4E96-8344-5B33C683822F}" name="jun-20" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{46DFEC9C-50E4-481A-BF5D-56B63F564768}" name="jul-19" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{9FC8DE04-41E9-4408-AB52-989B14625FB5}" name="jul-20" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{43E89F5B-D4D3-4592-8911-62A8BA480EB6}" name="ago-19" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{CFBB2501-3D3A-4CC4-A82B-A83441E483FB}" name="ago-20" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{A0378CE2-2AAC-40F9-B17F-FE925E6DDDFF}" name="sept-19" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{63B806D3-29EE-490C-A7F5-FDA0969BD645}" name="sept-20" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{E1769EFD-17E2-4E3F-B6D3-DF00A27783B3}" name="TOTAL  2019 (1)" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{E4421AC0-B602-41AE-B521-7AE18126086A}" name="TOTAL  2020 (1)" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{49004021-0F8A-4DBB-89A9-BCB16C2792F8}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4C4BC0E7-00E1-436B-8CC3-0ED2612B115B}" name="DELITO" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{C533D893-036C-49F0-A882-F0B44414757C}" name="ene-19" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{A63545A1-56EA-4FF6-A464-2E50B1FCC1F0}" name="ene-20" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{66085EF7-0DEF-4584-9E93-8062EB243000}" name="feb-19" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{5D907038-57FA-4B50-BC68-19A644C8673B}" name="feb-20" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{DB232B49-4315-4BD4-BC42-6D717496D075}" name="mar-19" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{30BC5F7C-8188-44D6-86D3-13E526CDC952}" name="mar-20" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{0FE91767-D945-4F0E-BACA-DAC27DFA2DB5}" name="abr-19" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{D5338135-66CD-4DDE-B864-0950F0201979}" name="abr-20" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{4BE22E96-15C3-485B-AF54-0B0D5E331491}" name="may-19" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{8E3205AE-5750-4D71-A45C-64148C55CAD7}" name="may-20" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{977441D7-788C-45CF-8B48-BCE8E430C44F}" name="jun-19" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{99758D8A-33C7-4E96-8344-5B33C683822F}" name="jun-20" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{46DFEC9C-50E4-481A-BF5D-56B63F564768}" name="jul-19" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{9FC8DE04-41E9-4408-AB52-989B14625FB5}" name="jul-20" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{43E89F5B-D4D3-4592-8911-62A8BA480EB6}" name="ago-19" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{CFBB2501-3D3A-4CC4-A82B-A83441E483FB}" name="ago-20" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{A0378CE2-2AAC-40F9-B17F-FE925E6DDDFF}" name="sept-19" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{63B806D3-29EE-490C-A7F5-FDA0969BD645}" name="sept-20" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{E1769EFD-17E2-4E3F-B6D3-DF00A27783B3}" name="TOTAL  2019 (1)" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{E4421AC0-B602-41AE-B521-7AE18126086A}" name="TOTAL  2020 (1)" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{49004021-0F8A-4DBB-89A9-BCB16C2792F8}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5603,583 +5550,1482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1698F57B-D304-44AB-81A4-453666973153}">
-  <dimension ref="A1:E37"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2018</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="10">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="10">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="10">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="10">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2019</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="10">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="10">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="10">
         <v>3</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="10">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="10">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="10">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="10">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="10">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="10">
         <v>2</v>
       </c>
-      <c r="E25" s="10">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="10">
-        <v>10</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B65" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="10">
         <v>2</v>
       </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B78" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" s="10">
         <v>3</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="10">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B104" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B105" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="10">
-        <v>7</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B106" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
+      <c r="C106" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B107" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B108" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B109" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="C109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6192,535 +7038,1436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3280BD-BD4F-4A28-A7A2-C9A890461113}">
-  <dimension ref="A1:E37"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="10">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="10">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="10">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="10">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="10">
         <v>9</v>
       </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="10">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="10">
         <v>6</v>
       </c>
-      <c r="D21" s="10">
-        <v>5</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>2019</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B98" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B99" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B100" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="10">
-        <v>6</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="10">
-        <v>5</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B106" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C106" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B107" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B108" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B109" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="10">
-        <v>6</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="C109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6733,844 +8480,2195 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC011F-41EC-4073-9F52-F81E6101A8E8}">
-  <dimension ref="A1:E55"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="10">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>2019</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>101</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>2019</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>2019</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="10">
+        <v>103</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="10">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="10">
+        <v>104</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="10">
         <v>5</v>
       </c>
-      <c r="D25" s="10">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>2019</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="10">
+        <v>106</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="10">
         <v>4</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>2019</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>2019</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
         <v>2019</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
         <v>2019</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>2019</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
         <v>2019</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
         <v>2019</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
         <v>2019</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="10">
+        <v>94</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
         <v>2019</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D37" s="10">
-        <v>2</v>
-      </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="25">
         <v>2018</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
         <v>2018</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="10">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="10">
-        <v>2</v>
+      <c r="C42" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
       </c>
-      <c r="E42" s="10">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B43" s="11" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="10">
         <v>2</v>
       </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D136" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D142" s="10"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D143" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" s="10"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D148" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D151" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B44" s="11" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" s="10"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D154" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="10">
-        <v>4</v>
-      </c>
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="C155" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="10">
-        <v>5</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="C156" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D156" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B157" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="C157" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="10">
-        <v>4</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="C159" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="C160" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="10">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="C161" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B163" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
-        <v>2018</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10">
-        <v>4</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="C163" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D163" s="10">
         <v>2</v>
       </c>
     </row>
@@ -7585,361 +10683,808 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65406B-7E14-474A-AA8A-3E4015B0B501}">
-  <dimension ref="A1:G24"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D52" sqref="D52:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>2020</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2020</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="10">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2020</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2020</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2020</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2020</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="10">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10">
         <v>11</v>
       </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="10">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="10">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="10">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2018</v>
       </c>
       <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="10">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="10">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10">
-        <v>5</v>
-      </c>
-      <c r="E15" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="48">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="48">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="48">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="48">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="48">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="48">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="48">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="48">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="48">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="48">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="48">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7954,8 +11499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T23" sqref="D23:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8034,11 +11579,11 @@
       <c r="Q1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>132</v>
+      <c r="R1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>22</v>
@@ -8794,7 +12339,7 @@
       <c r="U12" s="5">
         <v>5</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="40">
         <v>-0.17</v>
       </c>
     </row>
@@ -8930,7 +12475,7 @@
       <c r="U14" s="5">
         <v>4</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="40">
         <v>-0.2</v>
       </c>
     </row>
@@ -9027,56 +12572,56 @@
       <c r="V16" s="15"/>
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
+      <c r="A17" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A17:V17"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -9090,7 +12635,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:O19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9114,53 +12659,53 @@
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -9207,7 +12752,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -9254,7 +12799,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -9301,7 +12846,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -9348,7 +12893,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -9395,7 +12940,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="11">
@@ -9442,7 +12987,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B8">
@@ -9489,7 +13034,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -9536,7 +13081,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -9583,7 +13128,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -9630,7 +13175,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -9677,7 +13222,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -9724,7 +13269,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B14">
@@ -9771,7 +13316,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -9818,7 +13363,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B16">
@@ -9865,7 +13410,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B17">
@@ -9912,7 +13457,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44">
+      <c r="A18" s="41">
         <v>43709</v>
       </c>
       <c r="B18">
@@ -9959,7 +13504,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="A19" s="42">
         <v>44075</v>
       </c>
       <c r="B19">
@@ -10019,7 +13564,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U4"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10098,11 +13643,11 @@
       <c r="Q1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>132</v>
+      <c r="R1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>40</v>
@@ -10172,10 +13717,10 @@
       <c r="S2" s="9">
         <v>0</v>
       </c>
-      <c r="T2" s="47">
+      <c r="T2" s="44">
         <v>16</v>
       </c>
-      <c r="U2" s="47">
+      <c r="U2" s="44">
         <v>24</v>
       </c>
       <c r="V2" s="6">
@@ -10240,10 +13785,10 @@
       <c r="S3" s="3">
         <v>0</v>
       </c>
-      <c r="T3" s="48">
+      <c r="T3" s="45">
         <v>8</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="45">
         <v>3</v>
       </c>
       <c r="V3" s="6">
@@ -10308,10 +13853,10 @@
       <c r="S4" s="3">
         <v>2</v>
       </c>
-      <c r="T4" s="48">
+      <c r="T4" s="45">
         <v>20</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="45">
         <v>15</v>
       </c>
       <c r="V4" s="6">
@@ -10343,56 +13888,56 @@
       <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
+      <c r="A6" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:V6"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -10405,8 +13950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6253F4-844A-4171-9D66-1C3606268B96}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10434,268 +13979,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>2</v>
       </c>
-      <c r="C2" s="38">
-        <v>0</v>
-      </c>
-      <c r="D2" s="39">
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>10</v>
       </c>
-      <c r="C3" s="38">
-        <v>0</v>
-      </c>
-      <c r="D3" s="39">
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>3</v>
       </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="C4" s="37">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="37">
-        <v>1</v>
-      </c>
-      <c r="C5" s="38">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39">
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="38">
-        <v>1</v>
-      </c>
-      <c r="D6" s="39">
+      <c r="C6" s="37">
+        <v>1</v>
+      </c>
+      <c r="D6" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>2</v>
       </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
+      <c r="C7" s="37">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="37">
-        <v>1</v>
-      </c>
-      <c r="C8" s="38">
-        <v>1</v>
-      </c>
-      <c r="D8" s="39">
+      <c r="B8" s="36">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>3</v>
       </c>
-      <c r="C9" s="38">
-        <v>1</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="C9" s="37">
+        <v>1</v>
+      </c>
+      <c r="D9" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>3</v>
       </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="37">
-        <v>1</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="37">
-        <v>1</v>
-      </c>
-      <c r="C12" s="38">
+      <c r="B12" s="36">
+        <v>1</v>
+      </c>
+      <c r="C12" s="37">
         <v>3</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="37">
-        <v>0</v>
-      </c>
-      <c r="C13" s="38">
-        <v>0</v>
-      </c>
-      <c r="D13" s="39">
+      <c r="B13" s="36">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C14" s="38">
-        <v>0</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>7</v>
       </c>
-      <c r="C15" s="38">
-        <v>0</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="C15" s="37">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="37">
-        <v>0</v>
-      </c>
-      <c r="C16" s="38">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39">
+      <c r="B16" s="36">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="37">
-        <v>0</v>
-      </c>
-      <c r="C17" s="38">
-        <v>0</v>
-      </c>
-      <c r="D17" s="39">
+      <c r="B17" s="36">
+        <v>0</v>
+      </c>
+      <c r="C17" s="37">
+        <v>0</v>
+      </c>
+      <c r="D17" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
+      <c r="A18" s="43">
         <v>43709</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>2</v>
       </c>
-      <c r="C18" s="38">
-        <v>1</v>
-      </c>
-      <c r="D18" s="39">
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="43">
         <v>44075</v>
       </c>
-      <c r="B19" s="37">
-        <v>0</v>
-      </c>
-      <c r="C19" s="38">
-        <v>0</v>
-      </c>
-      <c r="D19" s="39">
+      <c r="B19" s="36">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38">
         <v>2</v>
       </c>
     </row>

--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CCEF06-528D-4C31-9940-90188A3F8A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D12EC-D18A-48DF-A880-3732DA3BF613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -1461,123 +1461,23 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3873,6 +3773,106 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5118,12 +5118,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B84E57B-424F-4835-B975-1E7F776CBB20}" name="Femicidio_Edad_Panama" displayName="Femicidio_Edad_Panama" ref="A1:D163" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4B84E57B-424F-4835-B975-1E7F776CBB20}" name="Femicidio_Edad_Panama" displayName="Femicidio_Edad_Panama" ref="A1:D163" totalsRowShown="0" headerRowDxfId="71">
   <autoFilter ref="A1:D163" xr:uid="{E566C7E3-FD90-466E-86ED-C27832F22AD8}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{DBA15307-9A04-450A-B817-0B9ED1D35BC2}" name="Año" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{1EED83BA-D528-4014-8F4B-CC5FB9A8E70A}" name="Rango de Edad" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{784EC2DB-C1A5-4FE5-BBCB-EFC02BC02A0A}" name="Tipo Delito" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DBA15307-9A04-450A-B817-0B9ED1D35BC2}" name="Año" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{1EED83BA-D528-4014-8F4B-CC5FB9A8E70A}" name="Rango de Edad" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{784EC2DB-C1A5-4FE5-BBCB-EFC02BC02A0A}" name="Tipo Delito" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{469503C1-5C93-4AE2-AC57-07C6D3ECBF1F}" name="Femicidio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5131,99 +5131,99 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D25D5733-97A1-4449-959A-0763463800B2}" name="Femicidio_TipoArma_Panama" displayName="Femicidio_TipoArma_Panama" ref="A1:D58" totalsRowShown="0" tableBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D25D5733-97A1-4449-959A-0763463800B2}" name="Femicidio_TipoArma_Panama" displayName="Femicidio_TipoArma_Panama" ref="A1:D58" totalsRowShown="0" tableBorderDxfId="67">
   <autoFilter ref="A1:D58" xr:uid="{FC14A289-1D97-415E-BE92-4B62D4ED45E0}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{6EF376B2-C898-46AC-BDE4-A01658642120}" name="Año" dataDxfId="70"/>
-    <tableColumn id="1" xr3:uid="{0BB9144D-1867-499A-9609-60D1FA852717}" name="Tipo de Arma Utilizada" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{6EF376B2-C898-46AC-BDE4-A01658642120}" name="Año" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{0BB9144D-1867-499A-9609-60D1FA852717}" name="Tipo de Arma Utilizada" dataDxfId="65"/>
     <tableColumn id="6" xr3:uid="{5E7A90C7-A84B-493A-9F60-C9B85B530EE6}" name="Tipo Delito"/>
-    <tableColumn id="2" xr3:uid="{1407E0BD-64EC-44D5-A1BB-81195B1B5787}" name="Cantidad" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{1407E0BD-64EC-44D5-A1BB-81195B1B5787}" name="Cantidad" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E863833-F091-471D-9F99-434D3D463F03}" name="Tabla6" displayName="Tabla6" ref="A1:V15" totalsRowShown="0" headerRowBorderDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E863833-F091-471D-9F99-434D3D463F03}" name="Tabla6" displayName="Tabla6" ref="A1:V15" totalsRowShown="0" headerRowBorderDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="A1:V15" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{03BE7E76-4119-4D97-900E-86E817F7AD14}" name="ÁREA GEOGRÁFICA" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{34128770-04FD-4157-9D93-00E7C3BFA532}" name="ene-19" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{2C05A97D-4E82-4573-AA58-21C5DA2A47EC}" name="ene-20" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{892F7350-5B16-4240-B6B3-123943713CC5}" name="feb-19" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{D017E81A-1695-469D-B323-AFA8E3974641}" name="feb-20" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{EDF63441-DF84-4770-9514-D792C866C165}" name="mar-19" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{020504B9-6E2E-4598-9BA4-47CA7A6F96A1}" name="mar-20" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{94536009-1131-4E93-A85B-D09C22157A3B}" name="abr-19" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{E37C02A3-1DB5-452B-AD07-31701BD1844F}" name="abr-20" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{984AB5EA-713F-423C-B4E7-70EF232F5DF1}" name="may-19" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{2C64A130-B70E-458F-970F-D16059846462}" name="may-20" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{7284A72D-CF3D-4532-BA02-95FCE10C4602}" name="jun-19" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{02DF413D-BA73-4DD7-B5BE-877CC4304153}" name="jun-20" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{53BF87D8-AA81-4642-9DFE-4F847057E207}" name="jul-19" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{280DC817-7060-4660-A989-1E8F91FE9082}" name="jul-20" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{1AC827D5-365D-40BA-AA8A-6A50DAB8D5FF}" name="ago-19" dataDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{4E569EED-D40A-4FE2-9BC0-A35DF44432D9}" name="ago-20" dataDxfId="49"/>
-    <tableColumn id="22" xr3:uid="{3F626001-9B74-48C7-8CA9-58B575A5B863}" name="sept-19" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{E3D08400-9482-4AAD-BBD9-5B86A1BB07E7}" name="sept-20" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{4CDE01EF-095A-418E-BA55-C6C31CCD46E1}" name="TOTAL  2019 (1)" dataDxfId="46"/>
-    <tableColumn id="19" xr3:uid="{E15773F0-B98C-44AB-81B4-89C061BA4606}" name="TOTAL  2020 (1)" dataDxfId="45"/>
-    <tableColumn id="20" xr3:uid="{EFECA936-EE15-460A-BE3B-9FAE48106D0E}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{03BE7E76-4119-4D97-900E-86E817F7AD14}" name="ÁREA GEOGRÁFICA" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{34128770-04FD-4157-9D93-00E7C3BFA532}" name="ene-19" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{2C05A97D-4E82-4573-AA58-21C5DA2A47EC}" name="ene-20" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{892F7350-5B16-4240-B6B3-123943713CC5}" name="feb-19" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{D017E81A-1695-469D-B323-AFA8E3974641}" name="feb-20" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{EDF63441-DF84-4770-9514-D792C866C165}" name="mar-19" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{020504B9-6E2E-4598-9BA4-47CA7A6F96A1}" name="mar-20" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{94536009-1131-4E93-A85B-D09C22157A3B}" name="abr-19" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{E37C02A3-1DB5-452B-AD07-31701BD1844F}" name="abr-20" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{984AB5EA-713F-423C-B4E7-70EF232F5DF1}" name="may-19" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{2C64A130-B70E-458F-970F-D16059846462}" name="may-20" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{7284A72D-CF3D-4532-BA02-95FCE10C4602}" name="jun-19" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{02DF413D-BA73-4DD7-B5BE-877CC4304153}" name="jun-20" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{53BF87D8-AA81-4642-9DFE-4F847057E207}" name="jul-19" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{280DC817-7060-4660-A989-1E8F91FE9082}" name="jul-20" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{1AC827D5-365D-40BA-AA8A-6A50DAB8D5FF}" name="ago-19" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{4E569EED-D40A-4FE2-9BC0-A35DF44432D9}" name="ago-20" dataDxfId="45"/>
+    <tableColumn id="22" xr3:uid="{3F626001-9B74-48C7-8CA9-58B575A5B863}" name="sept-19" dataDxfId="44"/>
+    <tableColumn id="21" xr3:uid="{E3D08400-9482-4AAD-BBD9-5B86A1BB07E7}" name="sept-20" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{4CDE01EF-095A-418E-BA55-C6C31CCD46E1}" name="TOTAL  2019 (1)" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{E15773F0-B98C-44AB-81B4-89C061BA4606}" name="TOTAL  2020 (1)" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{EFECA936-EE15-460A-BE3B-9FAE48106D0E}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0279BC9B-3635-40B8-8BD3-E5EC6E695C9D}" name="Tabla62" displayName="Tabla62" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0279BC9B-3635-40B8-8BD3-E5EC6E695C9D}" name="Tabla62" displayName="Tabla62" ref="A1:O19" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A1:O19" xr:uid="{5F7FCE2C-5035-4B80-B23C-86E9D3A71D9F}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B3EE8C17-A4A7-4A4D-94BB-9EE33BE2BDC8}" name="Fecha" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00293AFF-441F-4569-B381-818D5B1BCA8C}" name="Bocas Del Toro" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{B6957D72-CC8D-4A5E-B305-6CB700A9AE98}" name="Chiriquí" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{D3E6AAE3-4687-4BCE-B6C7-490766B0C854}" name="Coclé" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{48A711EF-CCC7-48E7-913B-E845D051A0DE}" name="Colón" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{D0C9AF31-B85A-4E99-A625-2698D073885E}" name="Comarca Emberá" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{0B846915-D36F-4439-A201-DFEA01A491BD}" name="Comarca Kuna Yala" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{52E051E9-F1E3-46B3-B193-2DFE05F8EA8A}" name="Comarca Ngöbe Buglé" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{69FB447E-1294-472C-99BE-4FFC791FE81F}" name="Darién" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{37E01297-91C4-4D91-A868-A367D01DF864}" name="Herrera" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{870B1540-89B2-45BB-9BC2-093140297EB7}" name="Los Santos" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{95C45461-C3B3-448D-81AD-C43B5B040AA3}" name="Panamá" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{352164F8-7168-4A64-B618-CB98D88C9917}" name="San Miguelito" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{7D4B1F9B-13C5-4AE1-AA97-A20415FB3F8E}" name="Panamá Oeste" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{FA6EB57B-FDD6-4956-BBF1-915206F87EB6}" name="Veraguas" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B3EE8C17-A4A7-4A4D-94BB-9EE33BE2BDC8}" name="Fecha" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00293AFF-441F-4569-B381-818D5B1BCA8C}" name="Bocas Del Toro" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{B6957D72-CC8D-4A5E-B305-6CB700A9AE98}" name="Chiriquí" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D3E6AAE3-4687-4BCE-B6C7-490766B0C854}" name="Coclé" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{48A711EF-CCC7-48E7-913B-E845D051A0DE}" name="Colón" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{D0C9AF31-B85A-4E99-A625-2698D073885E}" name="Comarca Emberá" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{0B846915-D36F-4439-A201-DFEA01A491BD}" name="Comarca Kuna Yala" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{52E051E9-F1E3-46B3-B193-2DFE05F8EA8A}" name="Comarca Ngöbe Buglé" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{69FB447E-1294-472C-99BE-4FFC791FE81F}" name="Darién" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{37E01297-91C4-4D91-A868-A367D01DF864}" name="Herrera" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{870B1540-89B2-45BB-9BC2-093140297EB7}" name="Los Santos" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{95C45461-C3B3-448D-81AD-C43B5B040AA3}" name="Panamá" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{352164F8-7168-4A64-B618-CB98D88C9917}" name="San Miguelito" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{7D4B1F9B-13C5-4AE1-AA97-A20415FB3F8E}" name="Panamá Oeste" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{FA6EB57B-FDD6-4956-BBF1-915206F87EB6}" name="Veraguas" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89AAC442-C09B-4BA0-BF98-616A919B56B3}" name="Tabla7" displayName="Tabla7" ref="A1:V4" totalsRowShown="0" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89AAC442-C09B-4BA0-BF98-616A919B56B3}" name="Tabla7" displayName="Tabla7" ref="A1:V4" totalsRowShown="0" tableBorderDxfId="22">
   <autoFilter ref="A1:V4" xr:uid="{A70A87EF-2056-4CC1-B503-2E0715282851}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{4C4BC0E7-00E1-436B-8CC3-0ED2612B115B}" name="DELITO" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C533D893-036C-49F0-A882-F0B44414757C}" name="ene-19" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{A63545A1-56EA-4FF6-A464-2E50B1FCC1F0}" name="ene-20" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{66085EF7-0DEF-4584-9E93-8062EB243000}" name="feb-19" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{5D907038-57FA-4B50-BC68-19A644C8673B}" name="feb-20" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{DB232B49-4315-4BD4-BC42-6D717496D075}" name="mar-19" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{30BC5F7C-8188-44D6-86D3-13E526CDC952}" name="mar-20" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{0FE91767-D945-4F0E-BACA-DAC27DFA2DB5}" name="abr-19" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{D5338135-66CD-4DDE-B864-0950F0201979}" name="abr-20" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{4BE22E96-15C3-485B-AF54-0B0D5E331491}" name="may-19" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{8E3205AE-5750-4D71-A45C-64148C55CAD7}" name="may-20" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{977441D7-788C-45CF-8B48-BCE8E430C44F}" name="jun-19" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{99758D8A-33C7-4E96-8344-5B33C683822F}" name="jun-20" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{46DFEC9C-50E4-481A-BF5D-56B63F564768}" name="jul-19" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{9FC8DE04-41E9-4408-AB52-989B14625FB5}" name="jul-20" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{43E89F5B-D4D3-4592-8911-62A8BA480EB6}" name="ago-19" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{CFBB2501-3D3A-4CC4-A82B-A83441E483FB}" name="ago-20" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{A0378CE2-2AAC-40F9-B17F-FE925E6DDDFF}" name="sept-19" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{63B806D3-29EE-490C-A7F5-FDA0969BD645}" name="sept-20" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{E1769EFD-17E2-4E3F-B6D3-DF00A27783B3}" name="TOTAL  2019 (1)" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{E4421AC0-B602-41AE-B521-7AE18126086A}" name="TOTAL  2020 (1)" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{49004021-0F8A-4DBB-89A9-BCB16C2792F8}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4C4BC0E7-00E1-436B-8CC3-0ED2612B115B}" name="DELITO" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C533D893-036C-49F0-A882-F0B44414757C}" name="ene-19" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A63545A1-56EA-4FF6-A464-2E50B1FCC1F0}" name="ene-20" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{66085EF7-0DEF-4584-9E93-8062EB243000}" name="feb-19" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5D907038-57FA-4B50-BC68-19A644C8673B}" name="feb-20" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{DB232B49-4315-4BD4-BC42-6D717496D075}" name="mar-19" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{30BC5F7C-8188-44D6-86D3-13E526CDC952}" name="mar-20" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{0FE91767-D945-4F0E-BACA-DAC27DFA2DB5}" name="abr-19" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{D5338135-66CD-4DDE-B864-0950F0201979}" name="abr-20" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{4BE22E96-15C3-485B-AF54-0B0D5E331491}" name="may-19" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{8E3205AE-5750-4D71-A45C-64148C55CAD7}" name="may-20" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{977441D7-788C-45CF-8B48-BCE8E430C44F}" name="jun-19" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{99758D8A-33C7-4E96-8344-5B33C683822F}" name="jun-20" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{46DFEC9C-50E4-481A-BF5D-56B63F564768}" name="jul-19" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{9FC8DE04-41E9-4408-AB52-989B14625FB5}" name="jul-20" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{43E89F5B-D4D3-4592-8911-62A8BA480EB6}" name="ago-19" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{CFBB2501-3D3A-4CC4-A82B-A83441E483FB}" name="ago-20" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{A0378CE2-2AAC-40F9-B17F-FE925E6DDDFF}" name="sept-19" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{63B806D3-29EE-490C-A7F5-FDA0969BD645}" name="sept-20" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{E1769EFD-17E2-4E3F-B6D3-DF00A27783B3}" name="TOTAL  2019 (1)" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E4421AC0-B602-41AE-B521-7AE18126086A}" name="TOTAL  2020 (1)" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{49004021-0F8A-4DBB-89A9-BCB16C2792F8}" name="VARIACIÓN PORCENTUAL 2019-2020 (2)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5555,8 +5555,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D85"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5857,7 +5857,9 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
@@ -5897,7 +5899,9 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -5993,7 +5997,9 @@
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
@@ -6019,7 +6025,9 @@
       <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
@@ -6031,7 +6039,9 @@
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -6043,7 +6053,9 @@
       <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
@@ -6055,7 +6067,9 @@
       <c r="C36" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -6067,7 +6081,9 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
@@ -6079,7 +6095,9 @@
       <c r="C38" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -6133,7 +6151,9 @@
       <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -6159,7 +6179,9 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -6227,7 +6249,9 @@
       <c r="C49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
@@ -6239,7 +6263,9 @@
       <c r="C50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
@@ -6293,7 +6319,9 @@
       <c r="C54" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -6319,7 +6347,9 @@
       <c r="C56" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
@@ -6359,7 +6389,9 @@
       <c r="C59" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
@@ -6371,7 +6403,9 @@
       <c r="C60" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
@@ -6397,7 +6431,9 @@
       <c r="C62" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
@@ -6451,7 +6487,9 @@
       <c r="C66" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
@@ -6463,7 +6501,9 @@
       <c r="C67" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
@@ -6475,7 +6515,9 @@
       <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
@@ -6487,7 +6529,9 @@
       <c r="C69" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
@@ -6499,7 +6543,9 @@
       <c r="C70" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
@@ -6511,7 +6557,9 @@
       <c r="C71" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
@@ -6523,7 +6571,9 @@
       <c r="C72" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="10"/>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
@@ -6535,7 +6585,9 @@
       <c r="C73" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
@@ -6561,7 +6613,9 @@
       <c r="C75" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
@@ -6783,7 +6837,9 @@
       <c r="C91" t="s">
         <v>132</v>
       </c>
-      <c r="D91" s="10"/>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
@@ -6823,7 +6879,9 @@
       <c r="C94" t="s">
         <v>132</v>
       </c>
-      <c r="D94" s="10"/>
+      <c r="D94" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
@@ -6905,7 +6963,9 @@
       <c r="C100" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="10"/>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
@@ -7001,7 +7061,9 @@
       <c r="C107" t="s">
         <v>132</v>
       </c>
-      <c r="D107" s="10"/>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
@@ -7013,7 +7075,9 @@
       <c r="C108" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="10"/>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
@@ -7025,7 +7089,9 @@
       <c r="C109" t="s">
         <v>132</v>
       </c>
-      <c r="D109" s="10"/>
+      <c r="D109" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7043,8 +7109,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D84"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7079,7 +7145,9 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -7133,7 +7201,9 @@
       <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -7145,7 +7215,9 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -7157,7 +7229,9 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -7225,7 +7299,9 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -7279,7 +7355,9 @@
       <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
@@ -7291,7 +7369,9 @@
       <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -7303,7 +7383,9 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
@@ -7343,7 +7425,9 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
@@ -7369,7 +7453,9 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -7423,7 +7509,9 @@
       <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -7435,7 +7523,9 @@
       <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
@@ -7447,7 +7537,9 @@
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -7501,7 +7593,9 @@
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
@@ -7527,7 +7621,9 @@
       <c r="C36" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
@@ -7539,7 +7635,9 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
@@ -7551,7 +7649,9 @@
       <c r="C38" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
@@ -7605,7 +7705,9 @@
       <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
@@ -7617,7 +7719,9 @@
       <c r="C43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -7629,7 +7733,9 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -7669,7 +7775,9 @@
       <c r="C47" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
@@ -7695,7 +7803,9 @@
       <c r="C49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
@@ -7721,7 +7831,9 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
@@ -7747,7 +7859,9 @@
       <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -7759,7 +7873,9 @@
       <c r="C54" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -7771,7 +7887,9 @@
       <c r="C55" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
@@ -7811,7 +7929,9 @@
       <c r="C58" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
@@ -7837,7 +7957,9 @@
       <c r="C60" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
@@ -7849,7 +7971,9 @@
       <c r="C61" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
@@ -7889,7 +8013,9 @@
       <c r="C64" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
@@ -7901,7 +8027,9 @@
       <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
@@ -7913,7 +8041,9 @@
       <c r="C66" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="10"/>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
@@ -7925,7 +8055,9 @@
       <c r="C67" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
@@ -7937,7 +8069,9 @@
       <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
@@ -7949,7 +8083,9 @@
       <c r="C69" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
@@ -7961,7 +8097,9 @@
       <c r="C70" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
@@ -7973,7 +8111,9 @@
       <c r="C71" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
@@ -7985,7 +8125,9 @@
       <c r="C72" t="s">
         <v>47</v>
       </c>
-      <c r="D72" s="10"/>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
@@ -7997,7 +8139,9 @@
       <c r="C73" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="10"/>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
@@ -8037,7 +8181,9 @@
       <c r="C76" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
@@ -8063,7 +8209,9 @@
       <c r="C78" t="s">
         <v>132</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
@@ -8075,7 +8223,9 @@
       <c r="C79" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="10"/>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
@@ -8087,7 +8237,9 @@
       <c r="C80" t="s">
         <v>132</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
@@ -8141,7 +8293,9 @@
       <c r="C84" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="10"/>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
@@ -8153,7 +8307,9 @@
       <c r="C85" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
@@ -8165,7 +8321,9 @@
       <c r="C86" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
@@ -8177,7 +8335,9 @@
       <c r="C87" t="s">
         <v>132</v>
       </c>
-      <c r="D87" s="10"/>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
@@ -8203,7 +8363,9 @@
       <c r="C89" t="s">
         <v>132</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
@@ -8215,7 +8377,9 @@
       <c r="C90" t="s">
         <v>132</v>
       </c>
-      <c r="D90" s="10"/>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
@@ -8297,7 +8461,9 @@
       <c r="C96" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="10"/>
+      <c r="D96" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
@@ -8323,7 +8489,9 @@
       <c r="C98" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
@@ -8349,7 +8517,9 @@
       <c r="C100" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="10"/>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
@@ -8431,7 +8601,9 @@
       <c r="C106" t="s">
         <v>132</v>
       </c>
-      <c r="D106" s="10"/>
+      <c r="D106" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
@@ -8443,7 +8615,9 @@
       <c r="C107" t="s">
         <v>132</v>
       </c>
-      <c r="D107" s="10"/>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
@@ -8455,7 +8629,9 @@
       <c r="C108" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="10"/>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
@@ -8467,7 +8643,9 @@
       <c r="C109" t="s">
         <v>132</v>
       </c>
-      <c r="D109" s="10"/>
+      <c r="D109" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8485,8 +8663,8 @@
   </sheetPr>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146:D163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8788,7 +8966,9 @@
       <c r="C21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
@@ -8800,7 +8980,9 @@
       <c r="C22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
@@ -8812,7 +8994,9 @@
       <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
@@ -8908,7 +9092,9 @@
       <c r="C30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
@@ -8920,7 +9106,9 @@
       <c r="C31" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
@@ -8932,7 +9120,9 @@
       <c r="C32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
@@ -8944,7 +9134,9 @@
       <c r="C33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
@@ -8956,7 +9148,9 @@
       <c r="C34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
@@ -8968,7 +9162,9 @@
       <c r="C35" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
@@ -9008,7 +9204,9 @@
       <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
@@ -9020,7 +9218,9 @@
       <c r="C39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
@@ -9046,7 +9246,9 @@
       <c r="C41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
@@ -9114,7 +9316,9 @@
       <c r="C46" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="25">
@@ -9140,7 +9344,9 @@
       <c r="C48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="25">
@@ -9152,7 +9358,9 @@
       <c r="C49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="25">
@@ -9192,7 +9400,9 @@
       <c r="C52" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="25">
@@ -9204,7 +9414,9 @@
       <c r="C53" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
@@ -9216,7 +9428,9 @@
       <c r="C54" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="25">
@@ -9228,7 +9442,9 @@
       <c r="C55" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -9492,7 +9708,9 @@
       <c r="C74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
@@ -9504,7 +9722,9 @@
       <c r="C75" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
@@ -9516,7 +9736,9 @@
       <c r="C76" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
@@ -9584,7 +9806,9 @@
       <c r="C81" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
@@ -9596,7 +9820,9 @@
       <c r="C82" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="25">
@@ -9608,7 +9834,9 @@
       <c r="C83" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="10"/>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="25">
@@ -9620,7 +9848,9 @@
       <c r="C84" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="10"/>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="25">
@@ -9632,7 +9862,9 @@
       <c r="C85" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
@@ -9644,7 +9876,9 @@
       <c r="C86" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
@@ -9670,7 +9904,9 @@
       <c r="C88" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="10"/>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
@@ -9682,7 +9918,9 @@
       <c r="C89" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
@@ -9694,7 +9932,9 @@
       <c r="C90" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D90" s="10"/>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="25">
@@ -9720,7 +9960,9 @@
       <c r="C92" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="10"/>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="25">
@@ -9732,7 +9974,9 @@
       <c r="C93" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="25">
@@ -9744,7 +9988,9 @@
       <c r="C94" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="10"/>
+      <c r="D94" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
@@ -9854,7 +10100,9 @@
       <c r="C102" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="10"/>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="25">
@@ -9866,7 +10114,9 @@
       <c r="C103" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="10"/>
+      <c r="D103" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="25">
@@ -9878,7 +10128,9 @@
       <c r="C104" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="10"/>
+      <c r="D104" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="25">
@@ -9890,7 +10142,9 @@
       <c r="C105" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="10"/>
+      <c r="D105" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="25">
@@ -9902,7 +10156,9 @@
       <c r="C106" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="10"/>
+      <c r="D106" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="25">
@@ -9914,7 +10170,9 @@
       <c r="C107" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="10"/>
+      <c r="D107" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="25">
@@ -9926,7 +10184,9 @@
       <c r="C108" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D108" s="10"/>
+      <c r="D108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="25">
@@ -10204,7 +10464,9 @@
       <c r="C128" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D128" s="10"/>
+      <c r="D128" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="25">
@@ -10356,7 +10618,9 @@
       <c r="C139" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D139" s="10"/>
+      <c r="D139" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="25">
@@ -10382,7 +10646,9 @@
       <c r="C141" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D141" s="10"/>
+      <c r="D141" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="25">
@@ -10394,7 +10660,9 @@
       <c r="C142" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D142" s="10"/>
+      <c r="D142" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="25">
@@ -10420,7 +10688,9 @@
       <c r="C144" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D144" s="10"/>
+      <c r="D144" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="25">
@@ -10460,7 +10730,9 @@
       <c r="C147" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="10"/>
+      <c r="D147" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="25">
@@ -10528,7 +10800,9 @@
       <c r="C152" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D152" s="10"/>
+      <c r="D152" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="25">
@@ -10540,7 +10814,9 @@
       <c r="C153" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D153" s="10"/>
+      <c r="D153" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="25">
@@ -10594,7 +10870,9 @@
       <c r="C157" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D157" s="10"/>
+      <c r="D157" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="25">
@@ -10620,7 +10898,9 @@
       <c r="C159" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D159" s="10"/>
+      <c r="D159" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="25">
@@ -10632,7 +10912,9 @@
       <c r="C160" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D160" s="10"/>
+      <c r="D160" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="25">
@@ -10644,7 +10926,9 @@
       <c r="C161" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="10"/>
+      <c r="D161" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="25">
@@ -10656,7 +10940,9 @@
       <c r="C162" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D162" s="10"/>
+      <c r="D162" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="25">
@@ -10688,8 +10974,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10864,7 +11150,9 @@
       <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -10946,7 +11234,9 @@
       <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
@@ -10977,10 +11267,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -10993,76 +11283,86 @@
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="48">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
+      <c r="A27" s="46">
         <v>2019</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -11073,10 +11373,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="A28" s="46">
         <v>2019</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -11087,10 +11387,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="48">
+      <c r="A29" s="46">
         <v>2019</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="47" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -11101,10 +11401,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
+      <c r="A30" s="46">
         <v>2019</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -11115,22 +11415,24 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="48">
+      <c r="A31" s="46">
         <v>2019</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="48">
+      <c r="A32" s="46">
         <v>2019</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="47" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -11141,10 +11443,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
+      <c r="A33" s="46">
         <v>2018</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="47" t="s">
         <v>115</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -11155,10 +11457,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
+      <c r="A34" s="46">
         <v>2018</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -11169,10 +11471,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
+      <c r="A35" s="46">
         <v>2018</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="47" t="s">
         <v>117</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -11183,46 +11485,52 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
+      <c r="A36" s="46">
         <v>2018</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
+      <c r="A37" s="46">
         <v>2018</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="47" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
+      <c r="A38" s="46">
         <v>2018</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
+      <c r="A39" s="46">
         <v>2018</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="47" t="s">
         <v>120</v>
       </c>
       <c r="C39" s="26" t="s">
@@ -11284,7 +11592,9 @@
       <c r="C43" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
@@ -11296,7 +11606,9 @@
       <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -11364,7 +11676,9 @@
       <c r="C49" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
@@ -11376,7 +11690,9 @@
       <c r="C50" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
@@ -11430,7 +11746,9 @@
       <c r="C54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -11470,7 +11788,9 @@
       <c r="C57" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
@@ -12572,30 +12892,30 @@
       <c r="V16" s="15"/>
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
@@ -13888,30 +14208,30 @@
       <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">

--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D12EC-D18A-48DF-A880-3732DA3BF613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887ABD42-0FCA-4CD8-BBC8-B704856DBE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -660,12 +660,6 @@
     <t>MES</t>
   </si>
   <si>
-    <t>FEMICIDIO</t>
-  </si>
-  <si>
-    <t>TENTATIVA DE FEMICIDIO</t>
-  </si>
-  <si>
     <t>ENERO</t>
   </si>
   <si>
@@ -819,9 +813,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>PANAMÁ OESTE (2)</t>
-  </si>
-  <si>
     <t>05-09  años</t>
   </si>
   <si>
@@ -918,9 +909,6 @@
     <t>(2) La variación porcentual reflejada en este cuadro se refiere a los mesese de enero a septiembre mostrando un aumento del 50% en Femicidio; un 63% menos en Tentativa de Femicidio y un 25% menos en Muerte Violenta al compararlos con el mismo periodo del año anterior 2019.</t>
   </si>
   <si>
-    <t>MUERTE VIOLENTA</t>
-  </si>
-  <si>
     <t>Tipo Delito</t>
   </si>
   <si>
@@ -928,6 +916,9 @@
   </si>
   <si>
     <t>Muerte Violenta</t>
+  </si>
+  <si>
+    <t>SIN DETERMINAR</t>
   </si>
 </sst>
 </file>
@@ -5094,7 +5085,7 @@
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{8CFD14A4-4ED3-4622-9C85-056441705531}" name="Año" dataDxfId="76"/>
     <tableColumn id="1" xr3:uid="{814B7C61-8738-4D50-A30D-B717D1619235}" name="MES"/>
-    <tableColumn id="6" xr3:uid="{4B326D34-F1E9-46A2-B526-6439632CCE3F}" name="Tipo Delito"/>
+    <tableColumn id="6" xr3:uid="{4B326D34-F1E9-46A2-B526-6439632CCE3F}" name="Tentativa de Femicidio"/>
     <tableColumn id="3" xr3:uid="{60D3103B-D828-4F3A-B5BE-01F557FC2A9A}" name="Cantidad" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5555,8 +5546,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5569,16 +5560,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>133</v>
+      <c r="C1" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5586,10 +5577,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
@@ -5600,10 +5591,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
@@ -5614,10 +5605,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -5628,10 +5619,10 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -5642,10 +5633,10 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -5656,10 +5647,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
@@ -5670,10 +5661,10 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D8" s="10">
         <v>3</v>
@@ -5684,10 +5675,10 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -5698,10 +5689,10 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -5712,10 +5703,10 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -5726,10 +5717,10 @@
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -5740,10 +5731,10 @@
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -5754,10 +5745,10 @@
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
@@ -5768,10 +5759,10 @@
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D15" s="10">
         <v>3</v>
@@ -5782,10 +5773,10 @@
         <v>2019</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -5796,10 +5787,10 @@
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -5810,10 +5801,10 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D18" s="10">
         <v>3</v>
@@ -5824,10 +5815,10 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -5838,10 +5829,10 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
@@ -5852,10 +5843,10 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -5866,10 +5857,10 @@
         <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
@@ -5880,10 +5871,10 @@
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -5894,10 +5885,10 @@
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -5908,10 +5899,10 @@
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D25" s="10">
         <v>4</v>
@@ -5922,10 +5913,10 @@
         <v>2020</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D26" s="10">
         <v>10</v>
@@ -5936,10 +5927,10 @@
         <v>2020</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -5950,10 +5941,10 @@
         <v>2020</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D28" s="10">
         <v>2</v>
@@ -5964,10 +5955,10 @@
         <v>2020</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
@@ -5978,10 +5969,10 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -5992,10 +5983,10 @@
         <v>2020</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -6006,10 +5997,10 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10">
         <v>7</v>
@@ -6020,10 +6011,10 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10">
         <v>0</v>
@@ -6034,10 +6025,10 @@
         <v>2020</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -6048,13 +6039,13 @@
         <v>2020</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D35" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6062,10 +6053,10 @@
         <v>2020</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -6076,10 +6067,10 @@
         <v>2020</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
@@ -6090,10 +6081,10 @@
         <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -6104,10 +6095,10 @@
         <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
         <v>47</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="10">
         <v>2</v>
@@ -6118,10 +6109,10 @@
         <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -6132,10 +6123,10 @@
         <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
@@ -6146,10 +6137,10 @@
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -6160,10 +6151,10 @@
         <v>2018</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
@@ -6174,10 +6165,10 @@
         <v>2018</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -6188,10 +6179,10 @@
         <v>2018</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="10">
         <v>4</v>
@@ -6202,10 +6193,10 @@
         <v>2018</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
@@ -6216,10 +6207,10 @@
         <v>2018</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
@@ -6230,10 +6221,10 @@
         <v>2018</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D48" s="10">
         <v>2</v>
@@ -6244,10 +6235,10 @@
         <v>2018</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -6258,10 +6249,10 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -6272,10 +6263,10 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
         <v>47</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -6286,10 +6277,10 @@
         <v>2019</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -6300,10 +6291,10 @@
         <v>2019</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D53" s="10">
         <v>1</v>
@@ -6314,10 +6305,10 @@
         <v>2019</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -6328,10 +6319,10 @@
         <v>2019</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
@@ -6342,10 +6333,10 @@
         <v>2019</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -6356,10 +6347,10 @@
         <v>2019</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D57" s="10">
         <v>1</v>
@@ -6370,10 +6361,10 @@
         <v>2019</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
@@ -6384,10 +6375,10 @@
         <v>2019</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
@@ -6398,10 +6389,10 @@
         <v>2019</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -6412,10 +6403,10 @@
         <v>2019</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D61" s="10">
         <v>2</v>
@@ -6426,10 +6417,10 @@
         <v>2020</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -6440,10 +6431,10 @@
         <v>2020</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
         <v>47</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D63" s="10">
         <v>1</v>
@@ -6454,10 +6445,10 @@
         <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D64" s="10">
         <v>1</v>
@@ -6468,10 +6459,10 @@
         <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D65" s="10">
         <v>1</v>
@@ -6482,10 +6473,10 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -6496,10 +6487,10 @@
         <v>2020</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -6510,10 +6501,10 @@
         <v>2020</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -6524,10 +6515,10 @@
         <v>2020</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D69" s="10">
         <v>0</v>
@@ -6538,10 +6529,10 @@
         <v>2020</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -6552,10 +6543,10 @@
         <v>2020</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -6566,10 +6557,10 @@
         <v>2020</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -6580,10 +6571,10 @@
         <v>2020</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D73" s="10">
         <v>0</v>
@@ -6594,10 +6585,10 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
+        <v>46</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D74" s="10">
         <v>3</v>
@@ -6608,10 +6599,10 @@
         <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
+        <v>47</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D75" s="10">
         <v>0</v>
@@ -6622,10 +6613,10 @@
         <v>2018</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" t="s">
-        <v>132</v>
+        <v>48</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D76" s="10">
         <v>2</v>
@@ -6636,10 +6627,10 @@
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" t="s">
-        <v>132</v>
+        <v>49</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -6650,10 +6641,10 @@
         <v>2018</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" t="s">
-        <v>132</v>
+        <v>50</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D78" s="10">
         <v>1</v>
@@ -6664,10 +6655,10 @@
         <v>2018</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D79" s="10">
         <v>1</v>
@@ -6678,10 +6669,10 @@
         <v>2018</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D80" s="10">
         <v>3</v>
@@ -6692,10 +6683,10 @@
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" t="s">
-        <v>132</v>
+        <v>53</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D81" s="10">
         <v>2</v>
@@ -6706,10 +6697,10 @@
         <v>2018</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D82" s="10">
         <v>2</v>
@@ -6720,10 +6711,10 @@
         <v>2018</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
+        <v>55</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D83" s="10">
         <v>2</v>
@@ -6734,10 +6725,10 @@
         <v>2018</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D84" s="10">
         <v>1</v>
@@ -6748,10 +6739,10 @@
         <v>2018</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D85" s="10">
         <v>1</v>
@@ -6762,10 +6753,10 @@
         <v>2019</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" t="s">
-        <v>132</v>
+        <v>46</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D86" s="10">
         <v>1</v>
@@ -6776,10 +6767,10 @@
         <v>2019</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" t="s">
-        <v>132</v>
+        <v>47</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D87" s="10">
         <v>3</v>
@@ -6790,10 +6781,10 @@
         <v>2019</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" t="s">
-        <v>132</v>
+        <v>48</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D88" s="10">
         <v>3</v>
@@ -6804,10 +6795,10 @@
         <v>2019</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" t="s">
-        <v>132</v>
+        <v>49</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D89" s="10">
         <v>2</v>
@@ -6818,10 +6809,10 @@
         <v>2019</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" t="s">
-        <v>132</v>
+        <v>50</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D90" s="10">
         <v>3</v>
@@ -6832,10 +6823,10 @@
         <v>2019</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D91" s="10">
         <v>0</v>
@@ -6846,10 +6837,10 @@
         <v>2019</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D92" s="10">
         <v>4</v>
@@ -6860,10 +6851,10 @@
         <v>2019</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" t="s">
-        <v>132</v>
+        <v>53</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D93" s="10">
         <v>4</v>
@@ -6874,10 +6865,10 @@
         <v>2019</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -6888,10 +6879,10 @@
         <v>2019</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" t="s">
-        <v>132</v>
+        <v>55</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D95" s="10">
         <v>3</v>
@@ -6902,10 +6893,10 @@
         <v>2019</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D96" s="10">
         <v>4</v>
@@ -6916,10 +6907,10 @@
         <v>2019</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D97" s="10">
         <v>4</v>
@@ -6930,10 +6921,10 @@
         <v>2020</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" t="s">
-        <v>132</v>
+        <v>46</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D98" s="10">
         <v>1</v>
@@ -6944,10 +6935,10 @@
         <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" t="s">
-        <v>132</v>
+        <v>47</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D99" s="10">
         <v>3</v>
@@ -6958,10 +6949,10 @@
         <v>2020</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" t="s">
-        <v>132</v>
+        <v>48</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -6972,10 +6963,10 @@
         <v>2020</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" t="s">
-        <v>132</v>
+        <v>49</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D101" s="10">
         <v>2</v>
@@ -6986,10 +6977,10 @@
         <v>2020</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" t="s">
-        <v>132</v>
+        <v>50</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D102" s="10">
         <v>3</v>
@@ -7000,10 +6991,10 @@
         <v>2020</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D103" s="10">
         <v>1</v>
@@ -7014,10 +7005,10 @@
         <v>2020</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D104" s="10">
         <v>1</v>
@@ -7028,10 +7019,10 @@
         <v>2020</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" t="s">
-        <v>132</v>
+        <v>53</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D105" s="10">
         <v>2</v>
@@ -7042,10 +7033,10 @@
         <v>2020</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D106" s="10">
         <v>2</v>
@@ -7056,10 +7047,10 @@
         <v>2020</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
-      </c>
-      <c r="C107" t="s">
-        <v>132</v>
+        <v>55</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -7070,10 +7061,10 @@
         <v>2020</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
-      </c>
-      <c r="C108" t="s">
-        <v>132</v>
+        <v>56</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -7084,10 +7075,10 @@
         <v>2020</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -7109,8 +7100,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7123,16 +7114,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7140,10 +7131,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -7154,10 +7145,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D3" s="10">
         <v>4</v>
@@ -7168,10 +7159,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -7182,10 +7173,10 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -7196,10 +7187,10 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -7210,10 +7201,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -7224,10 +7215,10 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -7238,10 +7229,10 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D9" s="10">
         <v>9</v>
@@ -7252,10 +7243,10 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D10" s="10">
         <v>2</v>
@@ -7266,10 +7257,10 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -7280,10 +7271,10 @@
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -7294,10 +7285,10 @@
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -7308,10 +7299,10 @@
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
@@ -7322,10 +7313,10 @@
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -7336,10 +7327,10 @@
         <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -7350,10 +7341,10 @@
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -7364,10 +7355,10 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -7378,10 +7369,10 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -7392,10 +7383,10 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10">
         <v>9</v>
@@ -7405,11 +7396,11 @@
       <c r="A21" s="10">
         <v>2019</v>
       </c>
-      <c r="B21" t="s">
-        <v>99</v>
+      <c r="B21" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10">
         <v>6</v>
@@ -7420,10 +7411,10 @@
         <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -7434,10 +7425,10 @@
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -7448,10 +7439,10 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -7462,10 +7453,10 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
@@ -7476,10 +7467,10 @@
         <v>2020</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -7490,10 +7481,10 @@
         <v>2020</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10">
         <v>6</v>
@@ -7504,10 +7495,10 @@
         <v>2020</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
@@ -7518,13 +7509,13 @@
         <v>2020</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7532,10 +7523,10 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -7546,10 +7537,10 @@
         <v>2020</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D31" s="10">
         <v>5</v>
@@ -7560,10 +7551,10 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -7574,13 +7565,13 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7588,10 +7579,10 @@
         <v>2020</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -7602,10 +7593,10 @@
         <v>2020</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D35" s="10">
         <v>6</v>
@@ -7616,10 +7607,10 @@
         <v>2020</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -7630,10 +7621,10 @@
         <v>2020</v>
       </c>
       <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
@@ -7644,10 +7635,10 @@
         <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -7658,10 +7649,10 @@
         <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -7672,10 +7663,10 @@
         <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="10">
         <v>4</v>
@@ -7686,10 +7677,10 @@
         <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
@@ -7700,10 +7691,10 @@
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -7714,10 +7705,10 @@
         <v>2018</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
@@ -7728,10 +7719,10 @@
         <v>2018</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -7742,10 +7733,10 @@
         <v>2018</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="10">
         <v>4</v>
@@ -7756,10 +7747,10 @@
         <v>2018</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
@@ -7770,10 +7761,10 @@
         <v>2018</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D47" s="10">
         <v>0</v>
@@ -7784,10 +7775,10 @@
         <v>2018</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
@@ -7798,10 +7789,10 @@
         <v>2019</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -7812,10 +7803,10 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D50" s="10">
         <v>1</v>
@@ -7826,10 +7817,10 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
@@ -7840,10 +7831,10 @@
         <v>2019</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -7854,10 +7845,10 @@
         <v>2019</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
@@ -7868,10 +7859,10 @@
         <v>2019</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -7882,10 +7873,10 @@
         <v>2019</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
@@ -7896,10 +7887,10 @@
         <v>2019</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D56" s="10">
         <v>2</v>
@@ -7909,11 +7900,11 @@
       <c r="A57" s="10">
         <v>2019</v>
       </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
+      <c r="B57" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -7924,10 +7915,10 @@
         <v>2019</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -7938,10 +7929,10 @@
         <v>2019</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D59" s="10">
         <v>1</v>
@@ -7952,10 +7943,10 @@
         <v>2020</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -7966,10 +7957,10 @@
         <v>2020</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D61" s="10">
         <v>0</v>
@@ -7980,10 +7971,10 @@
         <v>2020</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D62" s="10">
         <v>2</v>
@@ -7994,10 +7985,10 @@
         <v>2020</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D63" s="10">
         <v>1</v>
@@ -8008,10 +7999,10 @@
         <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -8022,10 +8013,10 @@
         <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D65" s="10">
         <v>0</v>
@@ -8036,10 +8027,10 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -8050,10 +8041,10 @@
         <v>2020</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -8064,10 +8055,10 @@
         <v>2020</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -8078,10 +8069,10 @@
         <v>2020</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D69" s="10">
         <v>0</v>
@@ -8092,10 +8083,10 @@
         <v>2020</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -8106,10 +8097,10 @@
         <v>2020</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -8120,10 +8111,10 @@
         <v>2020</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -8134,10 +8125,10 @@
         <v>2020</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D73" s="10">
         <v>0</v>
@@ -8148,10 +8139,10 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D74" s="10">
         <v>1</v>
@@ -8162,10 +8153,10 @@
         <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D75" s="10">
         <v>2</v>
@@ -8176,10 +8167,10 @@
         <v>2018</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" t="s">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -8190,10 +8181,10 @@
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D77" s="10">
         <v>2</v>
@@ -8204,10 +8195,10 @@
         <v>2018</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" t="s">
-        <v>132</v>
+        <v>63</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D78" s="10">
         <v>0</v>
@@ -8218,10 +8209,10 @@
         <v>2018</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" t="s">
-        <v>132</v>
+        <v>64</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D79" s="10">
         <v>0</v>
@@ -8232,10 +8223,10 @@
         <v>2018</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" t="s">
-        <v>132</v>
+        <v>65</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D80" s="10">
         <v>0</v>
@@ -8246,10 +8237,10 @@
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D81" s="10">
         <v>9</v>
@@ -8260,10 +8251,10 @@
         <v>2018</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>132</v>
+        <v>68</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D82" s="10">
         <v>3</v>
@@ -8274,10 +8265,10 @@
         <v>2018</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
+        <v>67</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D83" s="10">
         <v>2</v>
@@ -8288,10 +8279,10 @@
         <v>2018</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" t="s">
-        <v>132</v>
+        <v>69</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -8302,10 +8293,10 @@
         <v>2019</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D85" s="10">
         <v>0</v>
@@ -8316,10 +8307,10 @@
         <v>2019</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -8330,10 +8321,10 @@
         <v>2019</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" t="s">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D87" s="10">
         <v>0</v>
@@ -8344,10 +8335,10 @@
         <v>2019</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D88" s="10">
         <v>7</v>
@@ -8358,10 +8349,10 @@
         <v>2019</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" t="s">
-        <v>132</v>
+        <v>63</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D89" s="10">
         <v>0</v>
@@ -8372,10 +8363,10 @@
         <v>2019</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" t="s">
-        <v>132</v>
+        <v>64</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -8386,10 +8377,10 @@
         <v>2019</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" t="s">
-        <v>132</v>
+        <v>65</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D91" s="10">
         <v>1</v>
@@ -8400,10 +8391,10 @@
         <v>2019</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D92" s="10">
         <v>13</v>
@@ -8413,11 +8404,11 @@
       <c r="A93" s="10">
         <v>2019</v>
       </c>
-      <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" t="s">
-        <v>132</v>
+      <c r="B93" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D93" s="10">
         <v>3</v>
@@ -8428,10 +8419,10 @@
         <v>2019</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
-        <v>132</v>
+        <v>67</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D94" s="10">
         <v>1</v>
@@ -8442,10 +8433,10 @@
         <v>2019</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" t="s">
-        <v>132</v>
+        <v>69</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D95" s="10">
         <v>6</v>
@@ -8456,10 +8447,10 @@
         <v>2020</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -8470,10 +8461,10 @@
         <v>2020</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D97" s="10">
         <v>2</v>
@@ -8484,10 +8475,10 @@
         <v>2020</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -8498,10 +8489,10 @@
         <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D99" s="10">
         <v>2</v>
@@ -8512,10 +8503,10 @@
         <v>2020</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" t="s">
-        <v>132</v>
+        <v>63</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -8526,10 +8517,10 @@
         <v>2020</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" t="s">
-        <v>132</v>
+        <v>64</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D101" s="10">
         <v>1</v>
@@ -8540,10 +8531,10 @@
         <v>2020</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" t="s">
-        <v>132</v>
+        <v>65</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D102" s="10">
         <v>1</v>
@@ -8554,10 +8545,10 @@
         <v>2020</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D103" s="10">
         <v>5</v>
@@ -8568,10 +8559,10 @@
         <v>2020</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" t="s">
-        <v>132</v>
+        <v>67</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D104" s="10">
         <v>2</v>
@@ -8582,10 +8573,10 @@
         <v>2020</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
-      </c>
-      <c r="C105" t="s">
-        <v>132</v>
+        <v>68</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D105" s="10">
         <v>2</v>
@@ -8596,10 +8587,10 @@
         <v>2020</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" t="s">
-        <v>132</v>
+        <v>69</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -8610,10 +8601,10 @@
         <v>2020</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" t="s">
-        <v>132</v>
+        <v>70</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -8624,10 +8615,10 @@
         <v>2020</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
-      </c>
-      <c r="C108" t="s">
-        <v>132</v>
+        <v>71</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -8638,10 +8629,10 @@
         <v>2020</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C109" t="s">
-        <v>132</v>
+        <v>72</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -8664,7 +8655,7 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8678,16 +8669,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8695,10 +8686,10 @@
         <v>2020</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10">
         <v>2</v>
@@ -8709,10 +8700,10 @@
         <v>2020</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
@@ -8723,10 +8714,10 @@
         <v>2020</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -8737,13 +8728,13 @@
         <v>2020</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8751,10 +8742,10 @@
         <v>2020</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -8765,10 +8756,10 @@
         <v>2020</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
@@ -8779,10 +8770,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -8793,10 +8784,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -8807,13 +8798,13 @@
         <v>2020</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8821,10 +8812,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -8835,10 +8826,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -8849,10 +8840,10 @@
         <v>2020</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -8863,10 +8854,10 @@
         <v>2020</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -8877,10 +8868,10 @@
         <v>2020</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -8891,10 +8882,10 @@
         <v>2020</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -8905,10 +8896,10 @@
         <v>2020</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -8919,10 +8910,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -8933,13 +8924,13 @@
         <v>2020</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8947,10 +8938,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -8961,10 +8952,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -8975,10 +8966,10 @@
         <v>2019</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -8989,10 +8980,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -9003,10 +8994,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="10">
         <v>4</v>
@@ -9017,10 +9008,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="10">
         <v>5</v>
@@ -9031,10 +9022,10 @@
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -9045,10 +9036,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10">
         <v>4</v>
@@ -9059,10 +9050,10 @@
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -9073,10 +9064,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -9087,10 +9078,10 @@
         <v>2019</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -9101,10 +9092,10 @@
         <v>2019</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -9115,10 +9106,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -9129,10 +9120,10 @@
         <v>2019</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10">
         <v>0</v>
@@ -9143,10 +9134,10 @@
         <v>2019</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -9157,10 +9148,10 @@
         <v>2019</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" s="10">
         <v>0</v>
@@ -9171,10 +9162,10 @@
         <v>2019</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
         <v>2</v>
@@ -9185,10 +9176,10 @@
         <v>2019</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -9199,10 +9190,10 @@
         <v>2018</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -9213,10 +9204,10 @@
         <v>2018</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="10">
         <v>0</v>
@@ -9227,10 +9218,10 @@
         <v>2018</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -9241,10 +9232,10 @@
         <v>2018</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41" s="10">
         <v>0</v>
@@ -9255,10 +9246,10 @@
         <v>2018</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
@@ -9269,10 +9260,10 @@
         <v>2018</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="10">
         <v>2</v>
@@ -9283,10 +9274,10 @@
         <v>2018</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="10">
         <v>4</v>
@@ -9297,10 +9288,10 @@
         <v>2018</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="10">
         <v>5</v>
@@ -9311,10 +9302,10 @@
         <v>2018</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -9325,10 +9316,10 @@
         <v>2018</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -9339,10 +9330,10 @@
         <v>2018</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
@@ -9353,10 +9344,10 @@
         <v>2018</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -9367,10 +9358,10 @@
         <v>2018</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" s="10">
         <v>1</v>
@@ -9381,10 +9372,10 @@
         <v>2018</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -9395,10 +9386,10 @@
         <v>2018</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
@@ -9409,10 +9400,10 @@
         <v>2018</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
@@ -9423,10 +9414,10 @@
         <v>2018</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -9437,10 +9428,10 @@
         <v>2018</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
@@ -9451,10 +9442,10 @@
         <v>2020</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -9465,10 +9456,10 @@
         <v>2020</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
@@ -9479,10 +9470,10 @@
         <v>2020</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -9493,10 +9484,10 @@
         <v>2020</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
@@ -9507,10 +9498,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" s="10">
         <v>2</v>
@@ -9521,10 +9512,10 @@
         <v>2020</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="10">
         <v>1</v>
@@ -9535,10 +9526,10 @@
         <v>2020</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -9549,10 +9540,10 @@
         <v>2020</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
@@ -9563,10 +9554,10 @@
         <v>2020</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -9577,10 +9568,10 @@
         <v>2020</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="10">
         <v>0</v>
@@ -9591,10 +9582,10 @@
         <v>2020</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -9605,10 +9596,10 @@
         <v>2020</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -9619,10 +9610,10 @@
         <v>2020</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -9633,10 +9624,10 @@
         <v>2020</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D69" s="10">
         <v>0</v>
@@ -9647,10 +9638,10 @@
         <v>2020</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -9661,10 +9652,10 @@
         <v>2020</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -9675,10 +9666,10 @@
         <v>2020</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -9689,10 +9680,10 @@
         <v>2020</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="10">
         <v>0</v>
@@ -9703,10 +9694,10 @@
         <v>2019</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -9717,10 +9708,10 @@
         <v>2019</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" s="10">
         <v>0</v>
@@ -9731,10 +9722,10 @@
         <v>2019</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -9745,10 +9736,10 @@
         <v>2019</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -9759,10 +9750,10 @@
         <v>2019</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D78" s="10">
         <v>1</v>
@@ -9773,10 +9764,10 @@
         <v>2019</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D79" s="10">
         <v>3</v>
@@ -9787,10 +9778,10 @@
         <v>2019</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80" s="10">
         <v>2</v>
@@ -9801,10 +9792,10 @@
         <v>2019</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D81" s="10">
         <v>0</v>
@@ -9815,10 +9806,10 @@
         <v>2019</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D82" s="10">
         <v>0</v>
@@ -9829,10 +9820,10 @@
         <v>2019</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D83" s="10">
         <v>0</v>
@@ -9843,10 +9834,10 @@
         <v>2019</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -9857,10 +9848,10 @@
         <v>2019</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D85" s="10">
         <v>0</v>
@@ -9871,10 +9862,10 @@
         <v>2019</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -9885,10 +9876,10 @@
         <v>2019</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D87" s="10">
         <v>1</v>
@@ -9899,10 +9890,10 @@
         <v>2019</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
@@ -9913,10 +9904,10 @@
         <v>2019</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D89" s="10">
         <v>0</v>
@@ -9927,10 +9918,10 @@
         <v>2019</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -9941,10 +9932,10 @@
         <v>2019</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D91" s="10">
         <v>2</v>
@@ -9955,10 +9946,10 @@
         <v>2018</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -9969,10 +9960,10 @@
         <v>2018</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D93" s="10">
         <v>0</v>
@@ -9983,10 +9974,10 @@
         <v>2018</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -9997,10 +9988,10 @@
         <v>2018</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D95" s="10">
         <v>1</v>
@@ -10011,10 +10002,10 @@
         <v>2018</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D96" s="10">
         <v>2</v>
@@ -10025,10 +10016,10 @@
         <v>2018</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D97" s="10">
         <v>1</v>
@@ -10039,10 +10030,10 @@
         <v>2018</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D98" s="10">
         <v>3</v>
@@ -10053,10 +10044,10 @@
         <v>2018</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D99" s="10">
         <v>1</v>
@@ -10067,10 +10058,10 @@
         <v>2018</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D100" s="10">
         <v>1</v>
@@ -10081,10 +10072,10 @@
         <v>2018</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D101" s="10">
         <v>1</v>
@@ -10095,10 +10086,10 @@
         <v>2018</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -10109,10 +10100,10 @@
         <v>2018</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -10123,10 +10114,10 @@
         <v>2018</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -10137,10 +10128,10 @@
         <v>2018</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -10151,10 +10142,10 @@
         <v>2018</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -10165,10 +10156,10 @@
         <v>2018</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -10179,10 +10170,10 @@
         <v>2018</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -10193,10 +10184,10 @@
         <v>2018</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D109" s="10">
         <v>4</v>
@@ -10207,10 +10198,10 @@
         <v>2020</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D110" s="10">
         <v>1</v>
@@ -10221,10 +10212,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D111" s="10">
         <v>1</v>
@@ -10235,10 +10226,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D112" s="10">
         <v>1</v>
@@ -10249,10 +10240,10 @@
         <v>2020</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D113" s="10">
         <v>1</v>
@@ -10263,10 +10254,10 @@
         <v>2020</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D114" s="10">
         <v>2</v>
@@ -10277,10 +10268,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D115" s="10">
         <v>1</v>
@@ -10291,10 +10282,10 @@
         <v>2020</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D116" s="10">
         <v>1</v>
@@ -10305,10 +10296,10 @@
         <v>2020</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D117" s="10">
         <v>0</v>
@@ -10319,10 +10310,10 @@
         <v>2020</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D118" s="10">
         <v>0</v>
@@ -10333,10 +10324,10 @@
         <v>2020</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D119" s="10">
         <v>0</v>
@@ -10347,10 +10338,10 @@
         <v>2020</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D120" s="10">
         <v>0</v>
@@ -10361,10 +10352,10 @@
         <v>2020</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D121" s="10">
         <v>2</v>
@@ -10375,10 +10366,10 @@
         <v>2020</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D122" s="10">
         <v>0</v>
@@ -10389,10 +10380,10 @@
         <v>2020</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D123" s="10">
         <v>0</v>
@@ -10403,10 +10394,10 @@
         <v>2020</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D124" s="10">
         <v>0</v>
@@ -10417,10 +10408,10 @@
         <v>2020</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D125" s="10">
         <v>0</v>
@@ -10431,10 +10422,10 @@
         <v>2020</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D126" s="10">
         <v>0</v>
@@ -10445,10 +10436,10 @@
         <v>2020</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D127" s="10">
         <v>5</v>
@@ -10459,10 +10450,10 @@
         <v>2019</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D128" s="10">
         <v>0</v>
@@ -10473,10 +10464,10 @@
         <v>2019</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D129" s="10">
         <v>2</v>
@@ -10487,10 +10478,10 @@
         <v>2019</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D130" s="10">
         <v>1</v>
@@ -10501,10 +10492,10 @@
         <v>2019</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D131" s="10">
         <v>1</v>
@@ -10515,10 +10506,10 @@
         <v>2019</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D132" s="10">
         <v>11</v>
@@ -10529,10 +10520,10 @@
         <v>2019</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D133" s="10">
         <v>1</v>
@@ -10543,10 +10534,10 @@
         <v>2019</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D134" s="10">
         <v>4</v>
@@ -10557,10 +10548,10 @@
         <v>2019</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D135" s="10">
         <v>1</v>
@@ -10571,10 +10562,10 @@
         <v>2019</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D136" s="10">
         <v>1</v>
@@ -10585,10 +10576,10 @@
         <v>2019</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D137" s="10">
         <v>2</v>
@@ -10599,10 +10590,10 @@
         <v>2019</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D138" s="10">
         <v>1</v>
@@ -10613,10 +10604,10 @@
         <v>2019</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D139" s="10">
         <v>0</v>
@@ -10627,10 +10618,10 @@
         <v>2019</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D140" s="10">
         <v>1</v>
@@ -10641,10 +10632,10 @@
         <v>2019</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D141" s="10">
         <v>0</v>
@@ -10655,10 +10646,10 @@
         <v>2019</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D142" s="10">
         <v>0</v>
@@ -10669,10 +10660,10 @@
         <v>2019</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D143" s="10">
         <v>2</v>
@@ -10683,10 +10674,10 @@
         <v>2019</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D144" s="10">
         <v>0</v>
@@ -10697,10 +10688,10 @@
         <v>2019</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D145" s="10">
         <v>3</v>
@@ -10711,10 +10702,10 @@
         <v>2018</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D146" s="10">
         <v>1</v>
@@ -10725,10 +10716,10 @@
         <v>2018</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D147" s="10">
         <v>0</v>
@@ -10739,10 +10730,10 @@
         <v>2018</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D148" s="10">
         <v>1</v>
@@ -10753,10 +10744,10 @@
         <v>2018</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D149" s="10">
         <v>2</v>
@@ -10767,10 +10758,10 @@
         <v>2018</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D150" s="10">
         <v>2</v>
@@ -10781,10 +10772,10 @@
         <v>2018</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D151" s="10">
         <v>6</v>
@@ -10795,10 +10786,10 @@
         <v>2018</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D152" s="10">
         <v>0</v>
@@ -10809,10 +10800,10 @@
         <v>2018</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D153" s="10">
         <v>0</v>
@@ -10823,10 +10814,10 @@
         <v>2018</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D154" s="10">
         <v>1</v>
@@ -10837,10 +10828,10 @@
         <v>2018</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D155" s="10">
         <v>1</v>
@@ -10851,10 +10842,10 @@
         <v>2018</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D156" s="10">
         <v>2</v>
@@ -10865,10 +10856,10 @@
         <v>2018</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D157" s="10">
         <v>0</v>
@@ -10879,10 +10870,10 @@
         <v>2018</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D158" s="10">
         <v>1</v>
@@ -10893,10 +10884,10 @@
         <v>2018</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D159" s="10">
         <v>0</v>
@@ -10907,10 +10898,10 @@
         <v>2018</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D160" s="10">
         <v>0</v>
@@ -10921,10 +10912,10 @@
         <v>2018</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D161" s="10">
         <v>0</v>
@@ -10935,10 +10926,10 @@
         <v>2018</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D162" s="10">
         <v>0</v>
@@ -10949,10 +10940,10 @@
         <v>2018</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D163" s="10">
         <v>2</v>
@@ -10975,29 +10966,29 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11007,8 +10998,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>76</v>
+      <c r="C2" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D2" s="10">
         <v>8</v>
@@ -11021,8 +11012,8 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="10">
         <v>8</v>
@@ -11035,8 +11026,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>76</v>
+      <c r="C4" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D4" s="10">
         <v>5</v>
@@ -11049,8 +11040,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>76</v>
+      <c r="C5" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -11063,8 +11054,8 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>76</v>
+      <c r="C6" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -11074,14 +11065,14 @@
       <c r="A7" s="10">
         <v>2020</v>
       </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
+      <c r="B7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -11089,10 +11080,10 @@
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="10">
         <v>11</v>
@@ -11103,10 +11094,10 @@
         <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="10">
         <v>4</v>
@@ -11117,10 +11108,10 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
+        <v>114</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -11131,10 +11122,10 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
+        <v>115</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -11145,10 +11136,10 @@
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
+        <v>116</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -11159,10 +11150,10 @@
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
+        <v>117</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -11173,10 +11164,10 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="10">
         <v>4</v>
@@ -11187,10 +11178,10 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="10">
         <v>7</v>
@@ -11201,10 +11192,10 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="10">
         <v>3</v>
@@ -11215,10 +11206,10 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>3</v>
@@ -11229,10 +11220,10 @@
         <v>2018</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -11243,10 +11234,10 @@
         <v>2018</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -11257,10 +11248,10 @@
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
+        <v>117</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
@@ -11273,8 +11264,8 @@
       <c r="B21" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>77</v>
+      <c r="C21" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="10">
         <v>3</v>
@@ -11289,8 +11280,8 @@
       <c r="B22" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>77</v>
+      <c r="C22" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -11305,8 +11296,8 @@
       <c r="B23" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>77</v>
+      <c r="C23" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -11321,8 +11312,8 @@
       <c r="B24" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>77</v>
+      <c r="C24" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -11337,8 +11328,8 @@
       <c r="B25" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>77</v>
+      <c r="C25" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
@@ -11348,11 +11339,11 @@
       <c r="A26" s="46">
         <v>2020</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>77</v>
+      <c r="B26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -11363,10 +11354,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>77</v>
+        <v>112</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D27" s="10">
         <v>4</v>
@@ -11377,10 +11368,10 @@
         <v>2019</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
@@ -11391,10 +11382,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>77</v>
+        <v>114</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -11405,10 +11396,10 @@
         <v>2019</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -11419,10 +11410,10 @@
         <v>2019</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>77</v>
+        <v>116</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -11433,10 +11424,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -11447,10 +11438,10 @@
         <v>2018</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>77</v>
+        <v>112</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D33" s="10">
         <v>7</v>
@@ -11461,10 +11452,10 @@
         <v>2018</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D34" s="10">
         <v>5</v>
@@ -11475,10 +11466,10 @@
         <v>2018</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>77</v>
+        <v>114</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
@@ -11489,10 +11480,10 @@
         <v>2018</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>77</v>
+        <v>115</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -11503,10 +11494,10 @@
         <v>2018</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>77</v>
+        <v>118</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
@@ -11517,10 +11508,10 @@
         <v>2018</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>77</v>
+        <v>116</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -11531,10 +11522,10 @@
         <v>2018</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>77</v>
+        <v>117</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
@@ -11547,8 +11538,8 @@
       <c r="B40" t="s">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
-        <v>135</v>
+      <c r="C40" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -11561,8 +11552,8 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>135</v>
+      <c r="C41" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D41" s="10">
         <v>10</v>
@@ -11575,8 +11566,8 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
-        <v>135</v>
+      <c r="C42" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
@@ -11589,8 +11580,8 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>135</v>
+      <c r="C43" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
@@ -11603,8 +11594,8 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
-        <v>135</v>
+      <c r="C44" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -11614,11 +11605,11 @@
       <c r="A45" s="10">
         <v>2020</v>
       </c>
-      <c r="B45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" t="s">
-        <v>135</v>
+      <c r="B45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -11629,10 +11620,10 @@
         <v>2019</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D46" s="10">
         <v>5</v>
@@ -11643,10 +11634,10 @@
         <v>2019</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>135</v>
+        <v>113</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D47" s="10">
         <v>19</v>
@@ -11657,10 +11648,10 @@
         <v>2019</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
+        <v>114</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
@@ -11671,10 +11662,10 @@
         <v>2019</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -11685,10 +11676,10 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -11699,10 +11690,10 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D51" s="10">
         <v>6</v>
@@ -11713,10 +11704,10 @@
         <v>2018</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -11727,10 +11718,10 @@
         <v>2018</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" t="s">
-        <v>135</v>
+        <v>113</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D53" s="10">
         <v>12</v>
@@ -11741,10 +11732,10 @@
         <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" t="s">
-        <v>135</v>
+        <v>114</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -11755,10 +11746,10 @@
         <v>2018</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D55" s="10">
         <v>1</v>
@@ -11769,10 +11760,10 @@
         <v>2018</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D56" s="10">
         <v>1</v>
@@ -11783,10 +11774,10 @@
         <v>2018</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
@@ -11797,10 +11788,10 @@
         <v>2018</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D58" s="10">
         <v>2</v>
@@ -11900,10 +11891,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>22</v>
@@ -12893,7 +12884,7 @@
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -12919,22 +12910,22 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -12979,7 +12970,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>25</v>
@@ -13964,10 +13955,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>40</v>
@@ -14209,7 +14200,7 @@
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -14235,22 +14226,22 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -14300,7 +14291,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>42</v>

--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887ABD42-0FCA-4CD8-BBC8-B704856DBE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D3ECFE-46F6-4EBD-B3DB-881C7D8E8620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -5085,7 +5085,7 @@
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{8CFD14A4-4ED3-4622-9C85-056441705531}" name="Año" dataDxfId="76"/>
     <tableColumn id="1" xr3:uid="{814B7C61-8738-4D50-A30D-B717D1619235}" name="MES"/>
-    <tableColumn id="6" xr3:uid="{4B326D34-F1E9-46A2-B526-6439632CCE3F}" name="Tentativa de Femicidio"/>
+    <tableColumn id="6" xr3:uid="{4B326D34-F1E9-46A2-B526-6439632CCE3F}" name="Tipo Delito"/>
     <tableColumn id="3" xr3:uid="{60D3103B-D828-4F3A-B5BE-01F557FC2A9A}" name="Cantidad" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5546,8 +5546,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5566,7 +5566,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>130</v>
@@ -10965,7 +10965,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D3ECFE-46F6-4EBD-B3DB-881C7D8E8620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503FDBB1-1BE9-4CE5-A088-A080AAF967FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -723,9 +723,6 @@
     <t>PANAMÁ</t>
   </si>
   <si>
-    <t>SAN MIGUELITO</t>
-  </si>
-  <si>
     <t>PANAMÁ OESTE</t>
   </si>
   <si>
@@ -813,51 +810,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>05-09  años</t>
-  </si>
-  <si>
-    <t>10-14  años</t>
-  </si>
-  <si>
-    <t>15-17  años</t>
-  </si>
-  <si>
-    <t>18-24  años</t>
-  </si>
-  <si>
-    <t>25-29  años</t>
-  </si>
-  <si>
-    <t>30-34  años</t>
-  </si>
-  <si>
-    <t>35-39  años</t>
-  </si>
-  <si>
-    <t>40-44  años</t>
-  </si>
-  <si>
-    <t>45-49  años</t>
-  </si>
-  <si>
-    <t>50-54  años</t>
-  </si>
-  <si>
-    <t>55-59  años</t>
-  </si>
-  <si>
-    <t>65-69  años</t>
-  </si>
-  <si>
-    <t>70-74  años</t>
-  </si>
-  <si>
-    <t>75-79  años</t>
-  </si>
-  <si>
-    <t>Sin Datos</t>
-  </si>
-  <si>
     <t>ARMA BLANCA</t>
   </si>
   <si>
@@ -919,6 +871,9 @@
   </si>
   <si>
     <t>SIN DETERMINAR</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
   </si>
 </sst>
 </file>
@@ -4050,7 +4005,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5077,26 +5032,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A99F51E-3125-41F6-8A55-C40B4DACABE3}" name="Femicidio_Mes_Panama" displayName="Femicidio_Mes_Panama" ref="A1:D109" totalsRowShown="0">
-  <autoFilter ref="A1:D109" xr:uid="{7F0E5435-7C5E-4A00-B708-F5EDBE512978}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="A1:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A99F51E-3125-41F6-8A55-C40B4DACABE3}" name="Femicidio_Mes_Panama" displayName="Femicidio_Mes_Panama" ref="A1:E109" totalsRowShown="0">
+  <autoFilter ref="A1:E109" xr:uid="{7F0E5435-7C5E-4A00-B708-F5EDBE512978}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D109">
+    <sortCondition ref="A1:A109"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{8CFD14A4-4ED3-4622-9C85-056441705531}" name="Año" dataDxfId="76"/>
     <tableColumn id="1" xr3:uid="{814B7C61-8738-4D50-A30D-B717D1619235}" name="MES"/>
     <tableColumn id="6" xr3:uid="{4B326D34-F1E9-46A2-B526-6439632CCE3F}" name="Tipo Delito"/>
     <tableColumn id="3" xr3:uid="{60D3103B-D828-4F3A-B5BE-01F557FC2A9A}" name="Cantidad" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{F480C715-4EF4-4D66-8693-79849B9734FA}" name="Acumulado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF321475-2A64-456A-B72F-74359DF25E3E}" name="Femicidio_Provincia_Panama" displayName="Femicidio_Provincia_Panama" ref="A1:D109" totalsRowShown="0" dataDxfId="74">
-  <autoFilter ref="A1:D109" xr:uid="{2EA9E4BD-48B9-4B8E-A7DD-088EA5AEF36B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="A1:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF321475-2A64-456A-B72F-74359DF25E3E}" name="Femicidio_Provincia_Panama" displayName="Femicidio_Provincia_Panama" ref="A1:D100" totalsRowShown="0" dataDxfId="74">
+  <autoFilter ref="A1:D100" xr:uid="{2EA9E4BD-48B9-4B8E-A7DD-088EA5AEF36B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="5" xr3:uid="{CCDB4D91-9A45-48DF-A0FA-5DCF5DF285EE}" name="Año" dataDxfId="73"/>
@@ -5544,35 +5500,38 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>2018</v>
       </c>
@@ -5580,13 +5539,16 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2018</v>
       </c>
@@ -5594,13 +5556,16 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2018</v>
       </c>
@@ -5608,13 +5573,16 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2018</v>
       </c>
@@ -5622,13 +5590,16 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2018</v>
       </c>
@@ -5636,13 +5607,16 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2018</v>
       </c>
@@ -5650,13 +5624,16 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>2018</v>
       </c>
@@ -5664,13 +5641,16 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2018</v>
       </c>
@@ -5678,13 +5658,16 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2018</v>
       </c>
@@ -5692,13 +5675,16 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>2018</v>
       </c>
@@ -5706,13 +5692,16 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>2018</v>
       </c>
@@ -5720,13 +5709,16 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2018</v>
       </c>
@@ -5734,517 +5726,628 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
+      <c r="C26" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D26" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
-        <v>74</v>
+      <c r="C27" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
-        <v>74</v>
+      <c r="C28" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D28" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
-        <v>74</v>
+      <c r="C29" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D29" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
-        <v>74</v>
+      <c r="C30" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>74</v>
+      <c r="C31" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" t="s">
-        <v>74</v>
+      <c r="C32" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D32" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" t="s">
-        <v>74</v>
+      <c r="C33" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" t="s">
-        <v>74</v>
+      <c r="C34" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
-        <v>74</v>
+      <c r="C35" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
-        <v>74</v>
+      <c r="C36" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
-        <v>74</v>
+      <c r="C37" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>75</v>
+      <c r="C38" t="s">
+        <v>73</v>
       </c>
       <c r="D38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>75</v>
+      <c r="C39" t="s">
+        <v>73</v>
       </c>
       <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>75</v>
+      <c r="C41" t="s">
+        <v>73</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>75</v>
+      <c r="C42" t="s">
+        <v>73</v>
       </c>
       <c r="D42" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>75</v>
+      <c r="C43" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>75</v>
+      <c r="C44" t="s">
+        <v>73</v>
       </c>
       <c r="D44" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>75</v>
+      <c r="C45" t="s">
+        <v>73</v>
       </c>
       <c r="D45" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>75</v>
+      <c r="C46" t="s">
+        <v>73</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>75</v>
+      <c r="C47" t="s">
+        <v>73</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>75</v>
+      <c r="C48" t="s">
+        <v>73</v>
       </c>
       <c r="D48" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>75</v>
+      <c r="C49" t="s">
+        <v>73</v>
       </c>
       <c r="D49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>2019</v>
       </c>
@@ -6252,13 +6355,16 @@
         <v>46</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>2019</v>
       </c>
@@ -6266,13 +6372,16 @@
         <v>47</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>2019</v>
       </c>
@@ -6280,13 +6389,16 @@
         <v>48</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>2019</v>
       </c>
@@ -6294,13 +6406,16 @@
         <v>49</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>2019</v>
       </c>
@@ -6308,13 +6423,16 @@
         <v>50</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>2019</v>
       </c>
@@ -6322,13 +6440,16 @@
         <v>51</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>2019</v>
       </c>
@@ -6336,13 +6457,16 @@
         <v>52</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>2019</v>
       </c>
@@ -6350,13 +6474,16 @@
         <v>53</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>2019</v>
       </c>
@@ -6364,13 +6491,16 @@
         <v>54</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>2019</v>
       </c>
@@ -6378,13 +6508,16 @@
         <v>55</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>2019</v>
       </c>
@@ -6392,13 +6525,16 @@
         <v>56</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>2019</v>
       </c>
@@ -6406,517 +6542,628 @@
         <v>57</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D62" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B63" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D63" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B64" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D66" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B67" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B68" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B69" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D69" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B70" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B71" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D71" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B72" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D72" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B73" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>131</v>
+      <c r="C74" t="s">
+        <v>73</v>
       </c>
       <c r="D74" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>131</v>
+      <c r="C75" t="s">
+        <v>73</v>
       </c>
       <c r="D75" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>131</v>
+      <c r="C76" t="s">
+        <v>73</v>
       </c>
       <c r="D76" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>131</v>
+      <c r="C77" t="s">
+        <v>73</v>
       </c>
       <c r="D77" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>131</v>
+      <c r="C78" t="s">
+        <v>73</v>
       </c>
       <c r="D78" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>131</v>
+      <c r="C79" t="s">
+        <v>73</v>
       </c>
       <c r="D79" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B80" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>131</v>
+      <c r="C80" t="s">
+        <v>73</v>
       </c>
       <c r="D80" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B81" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>131</v>
+      <c r="C81" t="s">
+        <v>73</v>
       </c>
       <c r="D81" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B82" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>131</v>
+      <c r="C82" t="s">
+        <v>73</v>
       </c>
       <c r="D82" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B83" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>131</v>
+      <c r="C83" t="s">
+        <v>73</v>
       </c>
       <c r="D83" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B84" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>131</v>
+      <c r="C84" t="s">
+        <v>73</v>
       </c>
       <c r="D84" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B85" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>131</v>
+      <c r="C85" t="s">
+        <v>73</v>
       </c>
       <c r="D85" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B86" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D86" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B87" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D87" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B88" s="24" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B88" t="s">
         <v>48</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D88" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D89" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B90" t="s">
         <v>50</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D90" s="10">
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" t="s">
         <v>51</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D91" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B92" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D92" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D93" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B94" t="s">
         <v>54</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B95" t="s">
         <v>55</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D95" s="10">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B96" t="s">
         <v>56</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D96" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D97" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>2020</v>
       </c>
@@ -6924,13 +7171,16 @@
         <v>46</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D98" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>2020</v>
       </c>
@@ -6938,13 +7188,16 @@
         <v>47</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D99" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>2020</v>
       </c>
@@ -6952,13 +7205,16 @@
         <v>48</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <v>2020</v>
       </c>
@@ -6966,13 +7222,16 @@
         <v>49</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D101" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>2020</v>
       </c>
@@ -6980,13 +7239,16 @@
         <v>50</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D102" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>2020</v>
       </c>
@@ -6994,13 +7256,16 @@
         <v>51</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D103" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
         <v>2020</v>
       </c>
@@ -7008,13 +7273,16 @@
         <v>52</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D104" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
         <v>2020</v>
       </c>
@@ -7022,13 +7290,16 @@
         <v>53</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D105" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>2020</v>
       </c>
@@ -7036,13 +7307,16 @@
         <v>54</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D106" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
         <v>2020</v>
       </c>
@@ -7050,13 +7324,16 @@
         <v>55</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
         <v>2020</v>
       </c>
@@ -7064,13 +7341,16 @@
         <v>56</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
         <v>2020</v>
       </c>
@@ -7078,10 +7358,13 @@
         <v>57</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
+      </c>
+      <c r="E109">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7098,10 +7381,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7114,16 +7397,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7134,7 +7417,7 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -7148,7 +7431,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="10">
         <v>4</v>
@@ -7162,7 +7445,7 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -7176,7 +7459,7 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -7190,7 +7473,7 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -7204,7 +7487,7 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -7218,7 +7501,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -7232,10 +7515,10 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7243,10 +7526,10 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10">
         <v>2</v>
@@ -7257,27 +7540,27 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7285,13 +7568,13 @@
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7299,13 +7582,13 @@
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7313,13 +7596,13 @@
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7327,13 +7610,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7341,10 +7624,10 @@
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -7355,10 +7638,10 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -7369,52 +7652,52 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2019</v>
       </c>
-      <c r="B20" t="s">
-        <v>66</v>
+      <c r="B20" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -7422,13 +7705,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -7439,13 +7722,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7453,13 +7736,13 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7467,13 +7750,13 @@
         <v>2020</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7481,13 +7764,13 @@
         <v>2020</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7495,10 +7778,10 @@
         <v>2020</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
@@ -7509,13 +7792,13 @@
         <v>2020</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7523,13 +7806,13 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -7537,13 +7820,13 @@
         <v>2020</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7551,13 +7834,13 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7565,13 +7848,13 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7579,10 +7862,10 @@
         <v>2020</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -7590,44 +7873,44 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7635,13 +7918,13 @@
         <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7649,13 +7932,13 @@
         <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7663,13 +7946,13 @@
         <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7677,13 +7960,13 @@
         <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7691,13 +7974,13 @@
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7705,13 +7988,13 @@
         <v>2018</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7719,38 +8002,38 @@
         <v>2018</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
@@ -7758,13 +8041,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="10">
         <v>0</v>
@@ -7772,13 +8055,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
@@ -7789,10 +8072,10 @@
         <v>2019</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -7803,13 +8086,13 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7817,10 +8100,10 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
@@ -7831,27 +8114,27 @@
         <v>2019</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>2019</v>
       </c>
-      <c r="B53" t="s">
-        <v>63</v>
+      <c r="B53" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7859,24 +8142,24 @@
         <v>2019</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
@@ -7884,58 +8167,58 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>68</v>
+        <v>2020</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7943,10 +8226,10 @@
         <v>2020</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -7957,10 +8240,10 @@
         <v>2020</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="10">
         <v>0</v>
@@ -7971,13 +8254,13 @@
         <v>2020</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7985,13 +8268,13 @@
         <v>2020</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7999,10 +8282,10 @@
         <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -8013,10 +8296,10 @@
         <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="10">
         <v>0</v>
@@ -8027,10 +8310,10 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -8041,10 +8324,10 @@
         <v>2020</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -8052,41 +8335,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D68" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D69" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -8094,27 +8377,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D71" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -8122,13 +8405,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D73" s="10">
         <v>0</v>
@@ -8139,13 +8422,13 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D74" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8153,13 +8436,13 @@
         <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D75" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -8167,13 +8450,13 @@
         <v>2018</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D76" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,24 +8464,24 @@
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D77" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D78" s="10">
         <v>0</v>
@@ -8206,13 +8489,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D79" s="10">
         <v>0</v>
@@ -8220,13 +8503,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D80" s="10">
         <v>0</v>
@@ -8234,58 +8517,58 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D81" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D82" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D83" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D84" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8293,27 +8576,27 @@
         <v>2019</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D85" s="10">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>2019</v>
       </c>
-      <c r="B86" t="s">
-        <v>60</v>
+      <c r="B86" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D86" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8321,52 +8604,52 @@
         <v>2019</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D87" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D88" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D89" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -8374,55 +8657,55 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D91" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D92" s="10">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>68</v>
+        <v>2020</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D93" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D94" s="10">
         <v>1</v>
@@ -8430,16 +8713,16 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D95" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8447,13 +8730,13 @@
         <v>2020</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D96" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8461,13 +8744,13 @@
         <v>2020</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D97" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8475,10 +8758,10 @@
         <v>2020</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -8489,13 +8772,13 @@
         <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D99" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8503,138 +8786,12 @@
         <v>2020</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D100" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B102" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B103" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B104" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B105" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B107" t="s">
-        <v>70</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B108" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B109" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8654,8 +8811,8 @@
   </sheetPr>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8669,16 +8826,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8686,10 +8843,10 @@
         <v>2020</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10">
         <v>2</v>
@@ -8700,10 +8857,10 @@
         <v>2020</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
@@ -8714,10 +8871,10 @@
         <v>2020</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -8728,10 +8885,10 @@
         <v>2020</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10">
         <v>4</v>
@@ -8742,10 +8899,10 @@
         <v>2020</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
@@ -8756,10 +8913,10 @@
         <v>2020</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
@@ -8770,10 +8927,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -8784,10 +8941,10 @@
         <v>2020</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -8798,10 +8955,10 @@
         <v>2020</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10">
         <v>4</v>
@@ -8812,10 +8969,10 @@
         <v>2020</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -8826,10 +8983,10 @@
         <v>2020</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -8840,10 +8997,10 @@
         <v>2020</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -8854,10 +9011,10 @@
         <v>2020</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -8868,10 +9025,10 @@
         <v>2020</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -8882,10 +9039,10 @@
         <v>2020</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -8896,10 +9053,10 @@
         <v>2020</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10">
         <v>0</v>
@@ -8910,10 +9067,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -8924,10 +9081,10 @@
         <v>2020</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -8938,10 +9095,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -8952,10 +9109,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -8966,10 +9123,10 @@
         <v>2019</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -8980,10 +9137,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -8994,10 +9151,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="10">
         <v>4</v>
@@ -9008,10 +9165,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="10">
         <v>5</v>
@@ -9022,10 +9179,10 @@
         <v>2019</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -9036,10 +9193,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="10">
         <v>4</v>
@@ -9050,10 +9207,10 @@
         <v>2019</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -9064,10 +9221,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -9078,10 +9235,10 @@
         <v>2019</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -9092,10 +9249,10 @@
         <v>2019</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -9106,10 +9263,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -9120,10 +9277,10 @@
         <v>2019</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="10">
         <v>0</v>
@@ -9134,10 +9291,10 @@
         <v>2019</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -9148,10 +9305,10 @@
         <v>2019</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="10">
         <v>0</v>
@@ -9162,10 +9319,10 @@
         <v>2019</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="10">
         <v>2</v>
@@ -9176,10 +9333,10 @@
         <v>2019</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -9190,10 +9347,10 @@
         <v>2018</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -9204,10 +9361,10 @@
         <v>2018</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="10">
         <v>0</v>
@@ -9218,10 +9375,10 @@
         <v>2018</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -9232,10 +9389,10 @@
         <v>2018</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="10">
         <v>0</v>
@@ -9246,10 +9403,10 @@
         <v>2018</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
@@ -9260,10 +9417,10 @@
         <v>2018</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="10">
         <v>2</v>
@@ -9274,10 +9431,10 @@
         <v>2018</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="10">
         <v>4</v>
@@ -9288,10 +9445,10 @@
         <v>2018</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="10">
         <v>5</v>
@@ -9302,10 +9459,10 @@
         <v>2018</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -9316,10 +9473,10 @@
         <v>2018</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -9330,10 +9487,10 @@
         <v>2018</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
@@ -9344,10 +9501,10 @@
         <v>2018</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -9358,10 +9515,10 @@
         <v>2018</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="10">
         <v>1</v>
@@ -9372,10 +9529,10 @@
         <v>2018</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -9386,10 +9543,10 @@
         <v>2018</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
@@ -9400,10 +9557,10 @@
         <v>2018</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
@@ -9414,10 +9571,10 @@
         <v>2018</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -9428,10 +9585,10 @@
         <v>2018</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
@@ -9442,10 +9599,10 @@
         <v>2020</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -9456,10 +9613,10 @@
         <v>2020</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
@@ -9470,10 +9627,10 @@
         <v>2020</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -9484,10 +9641,10 @@
         <v>2020</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
@@ -9498,10 +9655,10 @@
         <v>2020</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="10">
         <v>2</v>
@@ -9512,10 +9669,10 @@
         <v>2020</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="10">
         <v>1</v>
@@ -9526,10 +9683,10 @@
         <v>2020</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -9540,10 +9697,10 @@
         <v>2020</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
@@ -9554,10 +9711,10 @@
         <v>2020</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -9568,10 +9725,10 @@
         <v>2020</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="10">
         <v>0</v>
@@ -9582,10 +9739,10 @@
         <v>2020</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -9596,10 +9753,10 @@
         <v>2020</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="10">
         <v>0</v>
@@ -9610,10 +9767,10 @@
         <v>2020</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -9624,10 +9781,10 @@
         <v>2020</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="10">
         <v>0</v>
@@ -9638,10 +9795,10 @@
         <v>2020</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -9652,10 +9809,10 @@
         <v>2020</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" s="10">
         <v>0</v>
@@ -9666,10 +9823,10 @@
         <v>2020</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="10">
         <v>0</v>
@@ -9680,10 +9837,10 @@
         <v>2020</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="10">
         <v>0</v>
@@ -9694,10 +9851,10 @@
         <v>2019</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -9708,10 +9865,10 @@
         <v>2019</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="10">
         <v>0</v>
@@ -9722,10 +9879,10 @@
         <v>2019</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -9736,10 +9893,10 @@
         <v>2019</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -9750,10 +9907,10 @@
         <v>2019</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="10">
         <v>1</v>
@@ -9764,10 +9921,10 @@
         <v>2019</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="10">
         <v>3</v>
@@ -9778,10 +9935,10 @@
         <v>2019</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="10">
         <v>2</v>
@@ -9792,10 +9949,10 @@
         <v>2019</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="10">
         <v>0</v>
@@ -9806,10 +9963,10 @@
         <v>2019</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="10">
         <v>0</v>
@@ -9820,10 +9977,10 @@
         <v>2019</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D83" s="10">
         <v>0</v>
@@ -9834,10 +9991,10 @@
         <v>2019</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -9848,10 +10005,10 @@
         <v>2019</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="10">
         <v>0</v>
@@ -9862,10 +10019,10 @@
         <v>2019</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -9876,10 +10033,10 @@
         <v>2019</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" s="10">
         <v>1</v>
@@ -9890,10 +10047,10 @@
         <v>2019</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
@@ -9904,10 +10061,10 @@
         <v>2019</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" s="10">
         <v>0</v>
@@ -9918,10 +10075,10 @@
         <v>2019</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -9932,10 +10089,10 @@
         <v>2019</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="10">
         <v>2</v>
@@ -9946,10 +10103,10 @@
         <v>2018</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -9960,10 +10117,10 @@
         <v>2018</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="10">
         <v>0</v>
@@ -9974,10 +10131,10 @@
         <v>2018</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -9988,10 +10145,10 @@
         <v>2018</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" s="10">
         <v>1</v>
@@ -10002,10 +10159,10 @@
         <v>2018</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D96" s="10">
         <v>2</v>
@@ -10016,10 +10173,10 @@
         <v>2018</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="10">
         <v>1</v>
@@ -10030,10 +10187,10 @@
         <v>2018</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D98" s="10">
         <v>3</v>
@@ -10044,10 +10201,10 @@
         <v>2018</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" s="10">
         <v>1</v>
@@ -10058,10 +10215,10 @@
         <v>2018</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D100" s="10">
         <v>1</v>
@@ -10072,10 +10229,10 @@
         <v>2018</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D101" s="10">
         <v>1</v>
@@ -10086,10 +10243,10 @@
         <v>2018</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -10100,10 +10257,10 @@
         <v>2018</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -10114,10 +10271,10 @@
         <v>2018</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -10128,10 +10285,10 @@
         <v>2018</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -10142,10 +10299,10 @@
         <v>2018</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -10156,10 +10313,10 @@
         <v>2018</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -10170,10 +10327,10 @@
         <v>2018</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -10184,10 +10341,10 @@
         <v>2018</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D109" s="10">
         <v>4</v>
@@ -10198,10 +10355,10 @@
         <v>2020</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D110" s="10">
         <v>1</v>
@@ -10212,10 +10369,10 @@
         <v>2020</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D111" s="10">
         <v>1</v>
@@ -10226,10 +10383,10 @@
         <v>2020</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D112" s="10">
         <v>1</v>
@@ -10240,10 +10397,10 @@
         <v>2020</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D113" s="10">
         <v>1</v>
@@ -10254,10 +10411,10 @@
         <v>2020</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D114" s="10">
         <v>2</v>
@@ -10268,10 +10425,10 @@
         <v>2020</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D115" s="10">
         <v>1</v>
@@ -10282,10 +10439,10 @@
         <v>2020</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D116" s="10">
         <v>1</v>
@@ -10296,10 +10453,10 @@
         <v>2020</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D117" s="10">
         <v>0</v>
@@ -10310,10 +10467,10 @@
         <v>2020</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D118" s="10">
         <v>0</v>
@@ -10324,10 +10481,10 @@
         <v>2020</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D119" s="10">
         <v>0</v>
@@ -10338,10 +10495,10 @@
         <v>2020</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D120" s="10">
         <v>0</v>
@@ -10352,10 +10509,10 @@
         <v>2020</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D121" s="10">
         <v>2</v>
@@ -10366,10 +10523,10 @@
         <v>2020</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D122" s="10">
         <v>0</v>
@@ -10380,10 +10537,10 @@
         <v>2020</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D123" s="10">
         <v>0</v>
@@ -10394,10 +10551,10 @@
         <v>2020</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D124" s="10">
         <v>0</v>
@@ -10408,10 +10565,10 @@
         <v>2020</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D125" s="10">
         <v>0</v>
@@ -10422,10 +10579,10 @@
         <v>2020</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D126" s="10">
         <v>0</v>
@@ -10436,10 +10593,10 @@
         <v>2020</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D127" s="10">
         <v>5</v>
@@ -10450,10 +10607,10 @@
         <v>2019</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D128" s="10">
         <v>0</v>
@@ -10464,10 +10621,10 @@
         <v>2019</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D129" s="10">
         <v>2</v>
@@ -10478,10 +10635,10 @@
         <v>2019</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D130" s="10">
         <v>1</v>
@@ -10492,10 +10649,10 @@
         <v>2019</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D131" s="10">
         <v>1</v>
@@ -10506,10 +10663,10 @@
         <v>2019</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D132" s="10">
         <v>11</v>
@@ -10520,10 +10677,10 @@
         <v>2019</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D133" s="10">
         <v>1</v>
@@ -10534,10 +10691,10 @@
         <v>2019</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D134" s="10">
         <v>4</v>
@@ -10548,10 +10705,10 @@
         <v>2019</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D135" s="10">
         <v>1</v>
@@ -10562,10 +10719,10 @@
         <v>2019</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D136" s="10">
         <v>1</v>
@@ -10576,10 +10733,10 @@
         <v>2019</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D137" s="10">
         <v>2</v>
@@ -10590,10 +10747,10 @@
         <v>2019</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D138" s="10">
         <v>1</v>
@@ -10604,10 +10761,10 @@
         <v>2019</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D139" s="10">
         <v>0</v>
@@ -10618,10 +10775,10 @@
         <v>2019</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D140" s="10">
         <v>1</v>
@@ -10632,10 +10789,10 @@
         <v>2019</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D141" s="10">
         <v>0</v>
@@ -10646,10 +10803,10 @@
         <v>2019</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D142" s="10">
         <v>0</v>
@@ -10660,10 +10817,10 @@
         <v>2019</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D143" s="10">
         <v>2</v>
@@ -10674,10 +10831,10 @@
         <v>2019</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D144" s="10">
         <v>0</v>
@@ -10688,10 +10845,10 @@
         <v>2019</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D145" s="10">
         <v>3</v>
@@ -10702,10 +10859,10 @@
         <v>2018</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D146" s="10">
         <v>1</v>
@@ -10716,10 +10873,10 @@
         <v>2018</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D147" s="10">
         <v>0</v>
@@ -10730,10 +10887,10 @@
         <v>2018</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D148" s="10">
         <v>1</v>
@@ -10744,10 +10901,10 @@
         <v>2018</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D149" s="10">
         <v>2</v>
@@ -10758,10 +10915,10 @@
         <v>2018</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D150" s="10">
         <v>2</v>
@@ -10772,10 +10929,10 @@
         <v>2018</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D151" s="10">
         <v>6</v>
@@ -10786,10 +10943,10 @@
         <v>2018</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D152" s="10">
         <v>0</v>
@@ -10800,10 +10957,10 @@
         <v>2018</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D153" s="10">
         <v>0</v>
@@ -10814,10 +10971,10 @@
         <v>2018</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D154" s="10">
         <v>1</v>
@@ -10828,10 +10985,10 @@
         <v>2018</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D155" s="10">
         <v>1</v>
@@ -10842,10 +10999,10 @@
         <v>2018</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D156" s="10">
         <v>2</v>
@@ -10856,10 +11013,10 @@
         <v>2018</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D157" s="10">
         <v>0</v>
@@ -10870,10 +11027,10 @@
         <v>2018</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D158" s="10">
         <v>1</v>
@@ -10884,10 +11041,10 @@
         <v>2018</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D159" s="10">
         <v>0</v>
@@ -10898,10 +11055,10 @@
         <v>2018</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D160" s="10">
         <v>0</v>
@@ -10912,10 +11069,10 @@
         <v>2018</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D161" s="10">
         <v>0</v>
@@ -10926,10 +11083,10 @@
         <v>2018</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D162" s="10">
         <v>0</v>
@@ -10940,10 +11097,10 @@
         <v>2018</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D163" s="10">
         <v>2</v>
@@ -10979,16 +11136,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10999,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10">
         <v>8</v>
@@ -11013,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="10">
         <v>8</v>
@@ -11027,7 +11184,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="10">
         <v>5</v>
@@ -11041,7 +11198,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -11055,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -11066,10 +11223,10 @@
         <v>2020</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -11080,10 +11237,10 @@
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10">
         <v>11</v>
@@ -11094,10 +11251,10 @@
         <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10">
         <v>4</v>
@@ -11108,10 +11265,10 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -11122,10 +11279,10 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -11136,10 +11293,10 @@
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -11150,10 +11307,10 @@
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -11164,10 +11321,10 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10">
         <v>4</v>
@@ -11178,10 +11335,10 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10">
         <v>7</v>
@@ -11192,10 +11349,10 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10">
         <v>3</v>
@@ -11206,10 +11363,10 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10">
         <v>3</v>
@@ -11220,10 +11377,10 @@
         <v>2018</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -11234,10 +11391,10 @@
         <v>2018</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -11248,10 +11405,10 @@
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
@@ -11265,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10">
         <v>3</v>
@@ -11281,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -11297,7 +11454,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -11313,7 +11470,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -11329,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
@@ -11340,10 +11497,10 @@
         <v>2020</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
@@ -11354,10 +11511,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="10">
         <v>4</v>
@@ -11368,10 +11525,10 @@
         <v>2019</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
@@ -11382,10 +11539,10 @@
         <v>2019</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -11396,10 +11553,10 @@
         <v>2019</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -11410,10 +11567,10 @@
         <v>2019</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -11424,10 +11581,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -11438,10 +11595,10 @@
         <v>2018</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10">
         <v>7</v>
@@ -11452,10 +11609,10 @@
         <v>2018</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10">
         <v>5</v>
@@ -11466,10 +11623,10 @@
         <v>2018</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
@@ -11480,10 +11637,10 @@
         <v>2018</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -11494,10 +11651,10 @@
         <v>2018</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="10">
         <v>0</v>
@@ -11508,10 +11665,10 @@
         <v>2018</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -11522,10 +11679,10 @@
         <v>2018</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
@@ -11539,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -11553,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D41" s="10">
         <v>10</v>
@@ -11567,7 +11724,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
@@ -11581,7 +11738,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
@@ -11595,7 +11752,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -11606,10 +11763,10 @@
         <v>2020</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -11620,10 +11777,10 @@
         <v>2019</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D46" s="10">
         <v>5</v>
@@ -11634,10 +11791,10 @@
         <v>2019</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D47" s="10">
         <v>19</v>
@@ -11648,10 +11805,10 @@
         <v>2019</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
@@ -11662,10 +11819,10 @@
         <v>2019</v>
       </c>
       <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -11676,10 +11833,10 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -11690,10 +11847,10 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D51" s="10">
         <v>6</v>
@@ -11704,10 +11861,10 @@
         <v>2018</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D52" s="10">
         <v>3</v>
@@ -11718,10 +11875,10 @@
         <v>2018</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D53" s="10">
         <v>12</v>
@@ -11732,10 +11889,10 @@
         <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -11746,10 +11903,10 @@
         <v>2018</v>
       </c>
       <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D55" s="10">
         <v>1</v>
@@ -11760,10 +11917,10 @@
         <v>2018</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D56" s="10">
         <v>1</v>
@@ -11774,10 +11931,10 @@
         <v>2018</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
@@ -11788,10 +11945,10 @@
         <v>2018</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D58" s="10">
         <v>2</v>
@@ -11891,10 +12048,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>22</v>
@@ -12884,7 +13041,7 @@
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -12910,22 +13067,22 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -12970,7 +13127,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>25</v>
@@ -13955,10 +14112,10 @@
         <v>21</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>40</v>
@@ -14200,7 +14357,7 @@
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -14226,22 +14383,22 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -14291,7 +14448,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>42</v>

--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503FDBB1-1BE9-4CE5-A088-A080AAF967FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6F64A-3C7B-4A6E-A8B1-ABB2366CF5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -4115,6 +4115,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794AF70F-6367-41AD-8BD2-F28B38651F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="1685925"/>
+          <a:ext cx="1895475" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100"/>
+            <a:t>RECORDAR QUE SAN MIGUELITO ES DE PANAMÁ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5502,7 +5572,7 @@
   </sheetPr>
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
@@ -6919,10 +6989,10 @@
         <v>73</v>
       </c>
       <c r="D83" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -6936,10 +7006,10 @@
         <v>73</v>
       </c>
       <c r="D84" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -6956,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -7344,10 +7414,10 @@
         <v>115</v>
       </c>
       <c r="D108" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -7364,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7383,8 +7453,8 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7700,7 +7770,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7798,7 +7868,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -8666,7 +8736,7 @@
         <v>115</v>
       </c>
       <c r="D91" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8811,8 +8881,8 @@
   </sheetPr>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B163"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8919,7 +8989,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8975,7 +9045,7 @@
         <v>73</v>
       </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -10431,7 +10501,7 @@
         <v>115</v>
       </c>
       <c r="D115" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -10459,7 +10529,7 @@
         <v>115</v>
       </c>
       <c r="D117" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -10473,7 +10543,7 @@
         <v>115</v>
       </c>
       <c r="D118" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -10501,7 +10571,7 @@
         <v>115</v>
       </c>
       <c r="D120" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -10599,7 +10669,7 @@
         <v>115</v>
       </c>
       <c r="D127" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -11122,8 +11192,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11159,7 +11229,7 @@
         <v>73</v>
       </c>
       <c r="D2" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11229,7 +11299,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -11713,7 +11783,7 @@
         <v>115</v>
       </c>
       <c r="D41" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">

--- a/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
+++ b/PANAMÁ/Delitos/Femicidio Ministerio Público Panamá.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6F64A-3C7B-4A6E-A8B1-ABB2366CF5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B67D13-363E-477C-B459-4B977F99734C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delitos de género por Mes" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -874,6 +874,9 @@
   </si>
   <si>
     <t>Acumulado</t>
+  </si>
+  <si>
+    <t>https://ministeriopublico.gob.pa/estadisticas-judiciales/estadisticas-femicidio/</t>
   </si>
 </sst>
 </file>
@@ -5570,10 +5573,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5856,7 +5859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2018</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2018</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2018</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>2018</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>2018</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -5991,8 +5994,11 @@
       <c r="E24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>2018</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>2018</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>2018</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>2018</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>2018</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>2018</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>2018</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>2018</v>
       </c>
@@ -11192,7 +11198,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
